--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,14 +3482,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3517,8 +3518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3532,6 +3534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3539,9 +3549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3549,7 +3558,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3560,6 +3569,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3585,22 +3602,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3610,15 +3611,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,19 +3723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,37 +3771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3813,25 +3801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3861,37 +3843,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,24 +5656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5689,17 +5671,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5721,6 +5712,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -5729,27 +5731,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5761,10 +5761,10 @@
     <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="39" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5773,133 +5773,133 @@
     <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="142" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="30" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6128,7 +6128,7 @@
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6152,7 +6152,7 @@
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,15 +8251,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8269,70 +8269,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15819,11 +15819,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>7802</v>
+        <v>-9127</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25512,15 +25512,17 @@
       <c r="C15" s="2">
         <v>42436</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>12333</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12333</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-16929</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3137,17 +3137,17 @@
   <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3484,37 +3484,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3549,48 +3526,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3621,6 +3581,46 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,30 +3723,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3771,49 +3747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3855,6 +3807,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3874,6 +3832,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5681,6 +5681,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5709,197 +5753,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6128,7 +6128,7 @@
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6152,7 +6152,7 @@
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15819,14 +15819,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K11" sqref="K11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G11)</f>
-        <v>634.222222222222</v>
+        <f>AVERAGE(G3:G14)</f>
+        <v>650.166666666667</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>-9127</v>
+        <v>7802</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25512,17 +25512,15 @@
       <c r="C15" s="2">
         <v>42436</v>
       </c>
-      <c r="D15" s="1">
-        <v>12333</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>12333</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>-16929</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="634" activeTab="11"/>
+    <workbookView windowWidth="20385" windowHeight="8385" tabRatio="634" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="血战计算器" sheetId="1" r:id="rId1"/>
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,9 +3482,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3495,27 +3518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3539,13 +3546,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3584,9 +3584,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3600,9 +3608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3613,14 +3621,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3718,6 +3718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3868,12 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,6 +5656,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5667,15 +5691,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5738,168 +5753,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="139" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="32" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="24" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="31" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,15 +8251,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8269,70 +8269,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8942,7 +8942,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="18" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="18" val="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8958,11 +8958,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="41" val="54"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="41" val="54"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$B$48" fmlaRange="弟子基础属性!$C$3:$C$48" max="29" page="12" sel="33" val="28"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$B$48" fmlaRange="弟子基础属性!$C$3:$C$48" max="29" page="12" sel="33" val="28"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8986,7 +8986,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$19" fmlaRange="总队伍" max="4" page="32" sel="6" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$A$19" fmlaRange="总队伍" max="4" page="32" sel="6" val="4"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15816,17 +15816,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>7802</v>
+        <v>8535</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25512,15 +25512,19 @@
       <c r="C15" s="2">
         <v>42436</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>27374</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2621</v>
+      </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29995</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -41191,11 +41195,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
       <formula1>$A$62:$A$86</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>武功表!$A$62:$A$86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,52 +3482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3550,7 +3505,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3579,46 +3619,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,7 +3723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,25 +3771,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3813,12 +3855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3838,42 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,11 +5656,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5680,17 +5710,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5718,188 +5753,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="139" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="32" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="24" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15816,17 +15816,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
       <formula1>$G$2:$O$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K13" sqref="K13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G14)</f>
-        <v>650.166666666667</v>
+        <f>AVERAGE(G3:G16)</f>
+        <v>670.785714285714</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>8535</v>
+        <v>9391</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25537,15 +25537,19 @@
       <c r="C16" s="2">
         <v>42437</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>28034</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2817</v>
+      </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30851</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -41195,11 +41199,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
       <formula1>$A$62:$A$86</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>武功表!$A$62:$A$86</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>武功表!$A$62:$A$86</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385" tabRatio="634" activeTab="11"/>
+    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="634" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="血战计算器" sheetId="1" r:id="rId1"/>
@@ -3135,18 +3135,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="69">
@@ -3482,7 +3482,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3505,92 +3542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3619,6 +3571,54 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,25 +3723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3771,49 +3753,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3855,6 +3813,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3874,6 +3838,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,6 +5656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5676,56 +5691,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5753,153 +5718,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="138" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="32" borderId="143" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,15 +8251,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8269,70 +8269,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8942,7 +8942,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="18" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="18" val="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8958,11 +8958,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="41" val="54"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="41" val="54"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$B$48" fmlaRange="弟子基础属性!$C$3:$C$48" max="29" page="12" sel="33" val="28"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$B$48" fmlaRange="弟子基础属性!$C$3:$C$48" max="29" page="12" sel="33" val="28"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8986,7 +8986,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49252" dx="22" fmlaLink="$A$19" fmlaRange="总队伍" max="4" page="32" sel="6" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$19" fmlaRange="总队伍" max="4" page="32" sel="6" val="4"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L14"/>
+      <selection activeCell="K7" sqref="K7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>9391</v>
+        <v>10586</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25561,15 +25561,19 @@
       <c r="C17" s="2">
         <v>42438</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>29179</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2867</v>
+      </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32046</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,13 +3482,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3497,14 +3490,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3530,14 +3515,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3585,24 +3562,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3617,8 +3594,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3718,12 +3718,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3843,6 +3837,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3856,24 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,21 +5656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5682,15 +5667,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5719,21 +5695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5749,7 +5710,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5758,148 +5758,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="143" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="138" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="31" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="143" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,11 +15813,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G16)</f>
-        <v>670.785714285714</v>
+        <f>AVERAGE(G3:G18)</f>
+        <v>709</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>10586</v>
+        <v>11344</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25586,15 +25586,19 @@
       <c r="C18" s="2">
         <v>42439</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>29732</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3072</v>
+      </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32804</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3136,17 +3136,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
     <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
@@ -3482,7 +3482,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3492,14 +3515,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3546,6 +3561,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3553,17 +3576,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3586,39 +3609,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3718,6 +3718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3837,25 +3843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3879,19 +3879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,6 +5656,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5697,41 +5721,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -5753,153 +5742,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="28" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="139" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="143" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="32" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="31" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="31" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,7 +7133,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,15 +8251,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8269,70 +8269,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
+      <formula1>"无,攻透,内透"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
       <formula1>$G$2:$O$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
-      <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G18)</f>
-        <v>709</v>
+        <f>AVERAGE(G3:G19)</f>
+        <v>702.764705882353</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>11344</v>
+        <v>11947</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25611,15 +25611,19 @@
       <c r="C19" s="2">
         <v>42440</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>30285</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3122</v>
+      </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33407</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,18 +3135,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
@@ -3482,32 +3482,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3518,6 +3503,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3525,9 +3518,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3540,20 +3546,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3570,7 +3586,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3578,39 +3610,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,19 +3723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,25 +3759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3795,49 +3813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3849,13 +3849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3873,12 +3873,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3891,7 +3885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,6 +5656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5676,36 +5691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5743,6 +5728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5758,91 +5758,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="140" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="139" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="27" borderId="143" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="27" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5851,55 +5851,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,16 +6958,16 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,7 +7133,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
-      <formula1>"无,攻透,内透"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
       <formula1>$G$2:$O$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
+      <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G19)</f>
-        <v>702.764705882353</v>
+        <f>AVERAGE(G3:G22)</f>
+        <v>706</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>11947</v>
+        <v>14120</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25636,15 +25636,19 @@
       <c r="C20" s="2">
         <v>42441</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>30785</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3400</v>
+      </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34185</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -25657,15 +25661,19 @@
       <c r="C21" s="2">
         <v>42442</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>31300</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3500</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34800</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -25678,15 +25686,19 @@
       <c r="C22" s="2">
         <v>42443</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>31966</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3614</v>
+      </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35580</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,18 +3135,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
@@ -3481,8 +3481,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3497,43 +3506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3546,17 +3519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3571,7 +3536,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3593,6 +3586,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3600,9 +3601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3610,15 +3618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,6 +3723,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3747,24 +3789,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3772,24 +3796,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,25 +3825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3849,25 +3837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3885,6 +3861,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3892,6 +3874,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5657,16 +5657,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5695,35 +5695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5753,153 +5735,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="20" borderId="140" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="140" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="27" borderId="143" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="27" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,28 +7082,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7133,7 +7133,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,7 +7202,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7990,7 +7990,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8005,13 +8005,13 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8020,7 +8020,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8110,19 +8110,19 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8134,7 +8134,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8146,7 +8146,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8158,7 +8158,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8170,13 +8170,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8194,7 +8194,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,7 +8212,7 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,13 +8251,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8272,7 +8272,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8284,7 +8284,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8314,10 +8314,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8329,7 +8329,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,7 +8350,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,11 +15813,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
+      <formula1>弟子基础属性!$C$3:$C$65</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
-      <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G22)</f>
-        <v>706</v>
+        <f>AVERAGE(G3:G23)</f>
+        <v>710.47619047619</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>14120</v>
+        <v>14920</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25711,15 +25711,19 @@
       <c r="C23" s="2">
         <v>42444</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>32621</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3759</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36380</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3481,6 +3481,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3512,56 +3526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3580,6 +3544,41 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3609,18 +3608,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,31 +3723,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,37 +3765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,7 +3789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3831,19 +3801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3867,24 +3855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3892,6 +3862,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,16 +5656,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5676,21 +5676,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5710,17 +5695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5745,11 +5724,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5758,148 +5758,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="20" borderId="140" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="31" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,15 +8251,15 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8269,70 +8269,70 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25736,8 +25736,12 @@
       <c r="C24" s="2">
         <v>42445</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,15 +3135,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -3484,14 +3484,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3526,31 +3549,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3581,46 +3621,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,6 +3723,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3747,25 +3771,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3807,12 +3855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3832,48 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5681,50 +5681,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5753,153 +5709,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="31" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="141" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6110,7 +6110,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6128,7 +6128,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6152,7 +6152,7 @@
     <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7109,13 +7109,13 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7208,7 +7208,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7987,7 +7987,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,7 +8002,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8017,16 +8017,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,7 +8107,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -8119,7 +8119,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,7 +8131,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,7 +8143,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8155,7 +8155,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8164,7 +8164,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8173,7 +8173,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,7 +8191,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8218,7 +8218,7 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8254,7 +8254,7 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8269,7 +8269,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8281,7 +8281,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8293,13 +8293,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8308,7 +8308,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8320,19 +8320,19 @@
     <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8356,7 +8356,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
-      <formula1>弟子基础属性!$C$3:$C$65</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
+      <formula1>弟子基础属性!$C$3:$C$65</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
+      <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
       <formula1>$G$2:$O$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
-      <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G23)</f>
-        <v>710.47619047619</v>
+        <f>AVERAGE(G3:G24)</f>
+        <v>736.318181818182</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>14920</v>
+        <v>16199</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25737,18 +25737,18 @@
         <v>42445</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>33624</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>4035</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37659</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,7 +3482,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3505,47 +3535,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3569,30 +3561,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3621,6 +3589,38 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,6 +3723,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3747,30 +3771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3790,30 +3790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3874,6 +3850,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5696,16 +5696,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5731,25 +5740,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5758,148 +5758,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,16 +6958,16 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6991,10 +6991,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7006,20 +7006,20 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,10 +8191,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8212,13 +8212,13 @@
     <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8251,13 +8251,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8269,10 +8269,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8281,10 +8281,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8293,13 +8293,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8308,31 +8308,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8341,7 +8341,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8350,13 +8350,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>16199</v>
+        <v>17687</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25761,15 +25761,19 @@
       <c r="C25" s="2">
         <v>42446</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>35017</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4130</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39147</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3482,9 +3482,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3508,6 +3508,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3535,9 +3543,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3600,27 +3608,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3795,6 +3795,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3868,12 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5696,6 +5696,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5738,131 +5753,116 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="33" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="42" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -5872,10 +5872,10 @@
     <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5884,22 +5884,22 @@
     <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6107,10 +6107,10 @@
     <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,16 +6958,16 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
+      <formula1>"无,攻透,内透"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
-      <formula1>"无,攻透,内透"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>17687</v>
+        <v>18372</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25786,15 +25786,19 @@
       <c r="C26" s="2">
         <v>42447</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>35570</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4262</v>
+      </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39832</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ref="G26:G42" si="2">IF(F26&gt;0,F26-F25,0)</f>
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3136,13 +3136,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -3488,6 +3488,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3508,14 +3516,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3543,32 +3543,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3600,6 +3577,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3616,11 +3608,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,6 +3723,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3771,36 +3777,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3832,6 +3808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3874,6 +3856,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,6 +5656,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5676,36 +5691,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5753,6 +5738,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5761,10 +5761,10 @@
     <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="33" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5773,133 +5773,133 @@
     <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="138" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="32" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="28" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -15813,20 +15813,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
-      <formula1>"无,攻透,内透"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
+      <formula1>"无,有"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
+      <formula1>弟子基础属性!$C$3:$C$65</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
+      <formula1>$G$2:$O$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
-      <formula1>弟子基础属性!$C$3:$C$65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
-      <formula1>"无,有"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
-      <formula1>$G$2:$O$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
+      <formula1>"无,攻透,内透"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25133,7 +25133,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25316,8 +25316,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <f>AVERAGE(G3:G24)</f>
-        <v>736.318181818182</v>
+        <f>AVERAGE(G3:G26)</f>
+        <v>765.5</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -41239,11 +41239,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
       <formula1>$A$62:$A$86</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>武功表!$A$62:$A$86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -3135,11 +3135,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
@@ -3484,44 +3484,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3543,7 +3505,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3574,53 +3621,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,7 +3723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,25 +3771,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3813,12 +3855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3838,42 +3874,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5656,21 +5656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5691,6 +5676,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5718,188 +5753,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="138" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="140" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="145" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -15813,17 +15813,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
+      <formula1>弟子基础属性!$C$3:$C$65</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
-      <formula1>弟子基础属性!$C$3:$C$65</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F26 F28:F29 H31:H32 V9:V10 V31:V32">
       <formula1>$G$2:$O$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T31:T32">
       <formula1>"无,攻透,内透"</formula1>
@@ -25132,8 +25132,8 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>18372</v>
+        <v>19157</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25811,15 +25811,19 @@
       <c r="C27" s="2">
         <v>42448</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1">
+        <v>36698</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3919</v>
+      </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40617</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -41239,11 +41243,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
       <formula1>$A$62:$A$86</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>武功表!$A$62:$A$86</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42 F44">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>武功表!$A$62:$A$86</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
+++ b/血战、洗髓计算器V1.72（添加减伤、香香）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="634" activeTab="11"/>
+    <workbookView windowWidth="23895" windowHeight="9945" tabRatio="634" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="血战计算器" sheetId="1" r:id="rId1"/>
@@ -3135,19 +3135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -3484,6 +3484,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3512,44 +3542,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3569,30 +3561,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3621,6 +3589,38 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3723,6 +3723,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3747,30 +3771,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3790,30 +3790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3874,6 +3850,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5696,6 +5696,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5729,177 +5753,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="32" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="39" borderId="143" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="141" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="23" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="138" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="145" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5996,7 +5996,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
@@ -6023,7 +6023,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6104,13 +6104,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="21" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyProtection="1">
@@ -6125,10 +6125,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6137,7 +6137,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="23" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6149,10 +6149,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="26" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="31" applyFont="1" applyBorder="1" applyProtection="1">
@@ -6305,16 +6305,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="9" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6338,16 +6338,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="29" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="49" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6460,14 +6460,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6673,7 +6673,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,7 +6722,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
@@ -6909,11 +6909,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6932,11 +6932,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6946,10 +6946,10 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="39" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="40" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="74" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6958,18 +6958,18 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="61" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="35" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="75" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6991,35 +6991,35 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="38" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="68" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="39" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7056,24 +7056,24 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="53" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="62" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="9" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="52" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="50" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -7082,40 +7082,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="18" fillId="3" borderId="51" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="61" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="69" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="79" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="46" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="3" borderId="24" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="71" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="54" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="3" borderId="60" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
@@ -7133,13 +7133,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -7175,22 +7175,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="31" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="12" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1">
@@ -7202,13 +7202,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,7 +7223,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7311,7 +7311,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7326,10 +7326,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7342,10 +7342,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7355,10 +7355,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7368,10 +7368,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7400,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7417,37 +7417,37 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7462,7 +7462,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7478,10 +7478,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7498,10 +7498,10 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="12" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7517,7 +7517,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7535,47 +7535,47 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7584,10 +7584,10 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7596,13 +7596,13 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="30" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7611,19 +7611,19 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7632,10 +7632,10 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7644,13 +7644,13 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="42" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7659,16 +7659,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7677,31 +7677,31 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,13 +7710,13 @@
     <xf numFmtId="0" fontId="44" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="39" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7725,13 +7725,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -7758,7 +7758,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,7 +7773,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7804,7 +7804,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="37" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7861,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7876,7 +7876,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7891,7 +7891,7 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7906,7 +7906,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="39" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="39" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7933,10 +7933,10 @@
     <xf numFmtId="1" fontId="48" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="5" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7945,14 +7945,14 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7960,14 +7960,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="36" fillId="14" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="49" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="33" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7987,10 +7987,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8002,31 +8002,31 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8107,22 +8107,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8131,10 +8131,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8143,10 +8143,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8155,28 +8155,28 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8191,172 +8191,172 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="11" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8942,7 +8942,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="18" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$A$31" fmlaRange="弟子基础属性!$C$3:$C$67" max="39" page="18" sel="16" val="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8958,7 +8958,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="41" val="54"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dropLines="49244" dx="22" fmlaLink="$S$13" fmlaRange="弟子基础属性!$C$3:$C$67" max="54" noThreeD="1" page="9" sel="44" val="54"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15813,11 +15813,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:O2">
       <formula1>弟子基础属性!$C$3:$C$65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:X6 H30">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D23 D25 D28">
       <formula1>"无,有"</formula1>
@@ -25132,8 +25132,8 @@
   <sheetPr/>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25476,7 +25476,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f>SUM(G3:G999)</f>
-        <v>19157</v>
+        <v>19858</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -25836,15 +25836,19 @@
       <c r="C28" s="2">
         <v>42449</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1">
+        <v>37256</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4062</v>
+      </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41318</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -30473,8 +30477,8 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30539,7 +30543,7 @@
       <c r="C6" s="295"/>
       <c r="D6" s="296" t="str">
         <f>$A$30</f>
-        <v>令狐冲</v>
+        <v>李寻欢</v>
       </c>
       <c r="E6" s="297" t="s">
         <v>365</v>
@@ -30594,23 +30598,23 @@
         <v>369</v>
       </c>
       <c r="E8" s="309">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" s="310">
-        <v>1953</v>
+        <v>3610</v>
       </c>
       <c r="G8" s="311">
-        <v>4182</v>
+        <v>4922</v>
       </c>
       <c r="H8" s="311">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="I8" s="355">
-        <v>3007</v>
+        <v>1065</v>
       </c>
       <c r="J8" s="356">
         <f t="shared" ref="J8" si="0">SUM(F8:I9)</f>
-        <v>9740</v>
+        <v>10299</v>
       </c>
       <c r="L8" s="219" t="s">
         <v>370</v>
@@ -30652,23 +30656,23 @@
       </c>
       <c r="F10" s="320">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,5,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,2,0))</f>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G10" s="321">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,6,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,3,0))</f>
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="H10" s="321">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,7,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,4,0))</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I10" s="359">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,8,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,5,0))</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J10" s="360">
         <f>SUM(F10:I11)</f>
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="K10" s="361"/>
       <c r="L10" s="362" t="s">
@@ -30709,23 +30713,23 @@
       </c>
       <c r="F12" s="326">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,10,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,7,0))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G12" s="327">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,11,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,8,0))</f>
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="H12" s="327">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,12,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,9,0))</f>
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I12" s="364">
         <f>IF(J5="否",VLOOKUP($D$6,弟子基础属性!$C$1:$P$183,13,0),VLOOKUP($D$6,弟子觉醒属性!$C$1:$L$183,10,0))</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J12" s="365">
         <f>SUM(F12:I13)</f>
-        <v>31</v>
+        <v>34.6</v>
       </c>
       <c r="K12" s="349" t="s">
         <v>376</v>
@@ -30743,7 +30747,7 @@
       <c r="J13" s="365"/>
       <c r="L13" s="362" t="str">
         <f>"1、极攻培养建议：血≥"&amp;F16&amp;"，防≥"&amp;H16&amp;"，内≥"&amp;I16&amp;"，且血+防+内="&amp;INT(F12*$E26+1)+INT(I12*$E26+1)+H16+E26*15&amp;"。"</f>
-        <v>1、极攻培养建议：血≥769，防≥298，内≥1153，且血+防+内=3660。</v>
+        <v>1、极攻培养建议：血≥1396，防≥335，内≥466，且血+防+内=3592。</v>
       </c>
       <c r="M13" s="362"/>
       <c r="N13" s="362"/>
@@ -30783,27 +30787,27 @@
       <c r="E16" s="332"/>
       <c r="F16" s="324">
         <f>INT(F12*$E26+1)</f>
-        <v>769</v>
+        <v>1396</v>
       </c>
       <c r="G16" s="325">
         <f>INT(G12*$E26+1)</f>
-        <v>759</v>
+        <v>1024</v>
       </c>
       <c r="H16" s="325">
         <f>INT(H12*$E26+1)</f>
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="I16" s="363">
         <f>INT(I12*$E26+1)</f>
-        <v>1153</v>
+        <v>466</v>
       </c>
       <c r="J16" s="368">
         <f>SUM(F16:I17)</f>
-        <v>2979</v>
+        <v>3221</v>
       </c>
       <c r="L16" s="362" t="str">
         <f>"2、极防培养建议：血≥"&amp;F16&amp;"，攻≥"&amp;G16&amp;"，内≥"&amp;I16&amp;"，且血+攻+内="&amp;INT(F12*$E26+1)+INT(I12*$E26+1)+G16+E26*15&amp;"。"</f>
-        <v>2、极防培养建议：血≥769，攻≥759，内≥1153，且血+攻+内=4121。</v>
+        <v>2、极防培养建议：血≥1396，攻≥1024，内≥466，且血+攻+内=4281。</v>
       </c>
       <c r="M16" s="362"/>
       <c r="N16" s="362"/>
@@ -30824,7 +30828,7 @@
       <c r="J17" s="370"/>
       <c r="L17" s="362" t="str">
         <f>"3、攻防培养建议：血≥"&amp;F16&amp;"，内≥"&amp;I16&amp;"，且血+内="&amp;INT(F12*$E26+1)+INT(I12*$E26+1)+E26*15&amp;"。"</f>
-        <v>3、攻防培养建议：血≥769，内≥1153，且血+内=3362。</v>
+        <v>3、攻防培养建议：血≥1396，内≥466，且血+内=3257。</v>
       </c>
       <c r="M17" s="362"/>
       <c r="N17" s="362"/>
@@ -30842,7 +30846,7 @@
       <c r="J18" s="23"/>
       <c r="L18" s="362" t="str">
         <f>"4、防内培养建议：血≥"&amp;F16&amp;"，攻≥"&amp;G16&amp;"，且血+攻="&amp;INT(F12*$E26+1)+INT(G12*$E26+1)+E26*15&amp;"。"</f>
-        <v>4、防内培养建议：血≥769，攻≥759，且血+攻=2968。</v>
+        <v>4、防内培养建议：血≥1396，攻≥1024，且血+攻=3815。</v>
       </c>
       <c r="M18" s="362"/>
       <c r="N18" s="362"/>
@@ -30907,11 +30911,11 @@
       </c>
       <c r="F22" s="340">
         <f>SMALL(F28:F31,G31)</f>
-        <v>45.4000000000001</v>
+        <v>1787.2</v>
       </c>
       <c r="G22" s="340">
         <f>SMALL(F28:F31,H31)</f>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="H22" s="340">
         <f>SMALL(F28:F31,I31)</f>
@@ -30919,11 +30923,11 @@
       </c>
       <c r="I22" s="340">
         <f>SMALL(F28:F31,J31)</f>
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="J22" s="372">
         <f>SUM(F22:I23)</f>
-        <v>5324</v>
+        <v>5686.2</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:10">
@@ -30941,31 +30945,31 @@
       <c r="B24" s="312"/>
       <c r="C24" s="313"/>
       <c r="D24" s="343">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E24" s="344">
         <f>E22+(D24-160)*15</f>
-        <v>5440</v>
+        <v>5395</v>
       </c>
       <c r="F24" s="344">
         <f>F12*(D24-160)+F22</f>
-        <v>813.4</v>
+        <v>3182.2</v>
       </c>
       <c r="G24" s="344">
         <f>G12*(D24-160)+G22</f>
-        <v>4182</v>
+        <v>4922</v>
       </c>
       <c r="H24" s="344">
         <f>H12*(D24-160)+H22</f>
-        <v>297.6</v>
+        <v>334.8</v>
       </c>
       <c r="I24" s="344">
         <f>I12*(D24-160)+I22</f>
-        <v>3007</v>
+        <v>465</v>
       </c>
       <c r="J24" s="374">
         <f>SUM(E24:I25)</f>
-        <v>13740</v>
+        <v>14299</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:10">
@@ -30982,27 +30986,27 @@
     <row r="26" ht="28.5" hidden="1" customHeight="1" spans="4:10">
       <c r="D26" s="23">
         <f>E26*15+D27</f>
-        <v>1440</v>
+        <v>1395</v>
       </c>
       <c r="E26" s="23">
         <f>E8-160</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" s="23">
         <f>F8-E26*F12</f>
-        <v>1185</v>
+        <v>2215</v>
       </c>
       <c r="G26" s="23">
         <f>G8-E26*G12</f>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="H26" s="23">
         <f>H8-E26*H12</f>
-        <v>300.4</v>
+        <v>367.2</v>
       </c>
       <c r="I26" s="23">
         <f>I8-E26*I12</f>
-        <v>1855</v>
+        <v>600</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -31014,30 +31018,30 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23">
         <f t="shared" ref="F27:I27" si="1">IF(F26&lt;0,0,F26)</f>
-        <v>1185</v>
+        <v>2215</v>
       </c>
       <c r="G27" s="23">
         <f t="shared" si="1"/>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>300.4</v>
+        <v>367.2</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="1"/>
-        <v>1855</v>
+        <v>600</v>
       </c>
       <c r="J27" s="23"/>
     </row>
     <row r="28" ht="24" hidden="1" customHeight="1" spans="4:10">
       <c r="D28" s="23">
         <f>SMALL(F26:I26,1)</f>
-        <v>300.4</v>
+        <v>367.2</v>
       </c>
       <c r="E28" s="23">
         <f>D28-D26</f>
-        <v>-1139.6</v>
+        <v>-1027.8</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" ref="F28:F31" si="2">IF(E28&lt;0,0,E28)</f>
@@ -31045,7 +31049,7 @@
       </c>
       <c r="G28" s="23">
         <f t="shared" ref="G28:J28" si="3">RANK(F26,$F26:$I26,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="23">
         <f t="shared" si="3"/>
@@ -31057,25 +31061,25 @@
       </c>
       <c r="J28" s="23">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="19.5" hidden="1" customHeight="1" spans="4:10">
       <c r="D29" s="23">
         <f>SMALL(F26:I26,2)</f>
-        <v>1185</v>
+        <v>600</v>
       </c>
       <c r="E29" s="23">
         <f t="shared" ref="E29:E31" si="4">IF(E28&lt;0,D29+E28,D29)</f>
-        <v>45.4000000000001</v>
+        <v>-427.8</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="2"/>
-        <v>45.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="G29" s="23">
         <f t="shared" ref="G29:G31" si="5">G28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="23">
         <f>IF(G28=H28,H28+1,H28)</f>
@@ -31087,29 +31091,29 @@
       </c>
       <c r="J29" s="23">
         <f t="shared" ref="J29:J31" si="6">IF(J28=G28,J28+1,IF(J28=H28,J28+1,IF(J28=I28,J28+1,J28)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="18" hidden="1" customHeight="1" spans="1:10">
       <c r="A30" s="5" t="str">
         <f>INDEX(弟子基础属性!C3:C67,$A$31)</f>
-        <v>令狐冲</v>
+        <v>李寻欢</v>
       </c>
       <c r="D30" s="23">
         <f>SMALL(F26:I26,3)</f>
-        <v>1855</v>
+        <v>2215</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" si="4"/>
-        <v>1855</v>
+        <v>1787.2</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="2"/>
-        <v>1855</v>
+        <v>1787.2</v>
       </c>
       <c r="G30" s="23">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="23">
         <f>H29</f>
@@ -31121,28 +31125,28 @@
       </c>
       <c r="J30" s="23">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" ht="17.25" hidden="1" customHeight="1" spans="1:10">
       <c r="A31" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="23">
         <f>SMALL(F26:I26,4)</f>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="E31" s="23">
         <f t="shared" si="4"/>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="2"/>
-        <v>3423.6</v>
+        <v>3899</v>
       </c>
       <c r="G31" s="23">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="23">
         <f>H30</f>
@@ -31154,7 +31158,7 @@
       </c>
       <c r="J31" s="23">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1"/>
@@ -31295,8 +31299,8 @@
   <sheetPr/>
   <dimension ref="D2:AA311"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -31348,7 +31352,7 @@
       </c>
       <c r="P3" s="23">
         <f t="shared" ref="P3" si="0">$G$16*O3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="23">
         <v>0</v>
@@ -31364,11 +31368,11 @@
       </c>
       <c r="P4" s="23">
         <f t="shared" ref="P4:P35" si="2">$G$16*O4</f>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="23">
         <f t="shared" ref="Q4:Q7" si="3">P3+Q3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="14:17">
@@ -31381,11 +31385,11 @@
       </c>
       <c r="P5" s="23">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="23">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="14:17">
@@ -31398,11 +31402,11 @@
       </c>
       <c r="P6" s="23">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="3"/>
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="6:17">
@@ -31421,11 +31425,11 @@
       </c>
       <c r="P7" s="23">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="23">
         <f t="shared" si="3"/>
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="6:26">
@@ -31443,11 +31447,11 @@
       </c>
       <c r="P8" s="23">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="23">
         <f t="shared" ref="Q8" si="5">P7+Q7</f>
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="U8" s="219"/>
       <c r="V8" s="219"/>
@@ -31470,11 +31474,11 @@
       </c>
       <c r="P9" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="23">
         <f t="shared" ref="Q9:Q40" si="6">P8+Q8</f>
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="U9" s="219"/>
       <c r="V9" s="219"/>
@@ -31494,11 +31498,11 @@
       </c>
       <c r="P10" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="23">
         <f t="shared" si="6"/>
-        <v>1230</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="14:17">
@@ -31511,11 +31515,11 @@
       </c>
       <c r="P11" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="23">
         <f t="shared" si="6"/>
-        <v>1476</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="4:20">
@@ -31525,7 +31529,7 @@
       <c r="E12" s="253"/>
       <c r="F12" s="254" t="str">
         <f>S12</f>
-        <v>一灯</v>
+        <v>张无忌</v>
       </c>
       <c r="G12" s="255" t="s">
         <v>384</v>
@@ -31543,15 +31547,15 @@
       </c>
       <c r="P12" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="6"/>
-        <v>1722</v>
+        <v>1680</v>
       </c>
       <c r="S12" s="4" t="str">
         <f>INDEX(弟子基础属性!C3:C67,$S$13)</f>
-        <v>一灯</v>
+        <v>张无忌</v>
       </c>
       <c r="T12" s="4"/>
     </row>
@@ -31573,14 +31577,14 @@
       </c>
       <c r="P13" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="6"/>
-        <v>1968</v>
+        <v>1920</v>
       </c>
       <c r="S13" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T13" s="4"/>
     </row>
@@ -31602,7 +31606,7 @@
       </c>
       <c r="K14" s="281">
         <f>VLOOKUP($I$14,$N$3:$P$311,3,0)</f>
-        <v>2446388</v>
+        <v>2386720</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="4"/>
@@ -31613,15 +31617,15 @@
       </c>
       <c r="P14" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="6"/>
-        <v>2214</v>
+        <v>2160</v>
       </c>
       <c r="S14" s="4">
         <f>VLOOKUP($G$18,$N$3:$Q$311,4,0)</f>
-        <v>320616802</v>
+        <v>312796880</v>
       </c>
       <c r="T14" s="4"/>
     </row>
@@ -31643,15 +31647,15 @@
       </c>
       <c r="P15" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="23">
         <f t="shared" si="6"/>
-        <v>2460</v>
+        <v>2400</v>
       </c>
       <c r="S15" s="4">
         <f>VLOOKUP($I$18,$N$3:$Q$311,4,0)</f>
-        <v>360823944</v>
+        <v>352023360</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="278" t="s">
@@ -31666,7 +31670,7 @@
       </c>
       <c r="G16" s="268">
         <f>VLOOKUP($F$12,弟子基础属性!$C$1:$P$183,4,0)</f>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="221"/>
@@ -31684,11 +31688,11 @@
       </c>
       <c r="P16" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="23">
         <f t="shared" si="6"/>
-        <v>2706</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:26">
@@ -31709,11 +31713,11 @@
       </c>
       <c r="P17" s="23">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="23">
         <f t="shared" si="6"/>
-        <v>2952</v>
+        <v>2880</v>
       </c>
       <c r="U17" s="219" t="s">
         <v>389</v>
@@ -31742,7 +31746,7 @@
       </c>
       <c r="K18" s="288">
         <f>S15-S14</f>
-        <v>40207142</v>
+        <v>39226480</v>
       </c>
       <c r="L18" s="278"/>
       <c r="N18" s="23">
@@ -31754,11 +31758,11 @@
       </c>
       <c r="P18" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="6"/>
-        <v>3198</v>
+        <v>3120</v>
       </c>
       <c r="U18" s="219"/>
       <c r="V18" s="219"/>
@@ -31785,11 +31789,11 @@
       </c>
       <c r="P19" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="6"/>
-        <v>3772</v>
+        <v>3680</v>
       </c>
       <c r="U19" s="219" t="s">
         <v>392</v>
@@ -31823,11 +31827,11 @@
       </c>
       <c r="P20" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="23">
         <f t="shared" si="6"/>
-        <v>4346</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="4:17">
@@ -31848,11 +31852,11 @@
       </c>
       <c r="P21" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="6"/>
-        <v>4920</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="14:17">
@@ -31865,11 +31869,11 @@
       </c>
       <c r="P22" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="23">
         <f t="shared" si="6"/>
-        <v>5494</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="23" spans="14:17">
@@ -31882,11 +31886,11 @@
       </c>
       <c r="P23" s="23">
         <f t="shared" si="2"/>
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="Q23" s="23">
         <f t="shared" si="6"/>
-        <v>6068</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="24" spans="14:17">
@@ -31899,11 +31903,11 @@
       </c>
       <c r="P24" s="23">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="Q24" s="23">
         <f t="shared" si="6"/>
-        <v>6642</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="25" spans="14:17">
@@ -31916,11 +31920,11 @@
       </c>
       <c r="P25" s="23">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="Q25" s="23">
         <f t="shared" si="6"/>
-        <v>7626</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="26" spans="14:17">
@@ -31933,11 +31937,11 @@
       </c>
       <c r="P26" s="23">
         <f t="shared" si="2"/>
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="Q26" s="23">
         <f t="shared" si="6"/>
-        <v>8610</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="27" spans="14:17">
@@ -31950,11 +31954,11 @@
       </c>
       <c r="P27" s="23">
         <f t="shared" si="2"/>
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="6"/>
-        <v>9594</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="28" spans="14:17">
@@ -31967,11 +31971,11 @@
       </c>
       <c r="P28" s="23">
         <f t="shared" si="2"/>
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="Q28" s="23">
         <f t="shared" si="6"/>
-        <v>11070</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="29" spans="14:17">
@@ -31984,11 +31988,11 @@
       </c>
       <c r="P29" s="23">
         <f t="shared" si="2"/>
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="Q29" s="23">
         <f t="shared" si="6"/>
-        <v>12546</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="30" spans="14:17">
@@ -32001,11 +32005,11 @@
       </c>
       <c r="P30" s="23">
         <f t="shared" si="2"/>
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="Q30" s="23">
         <f t="shared" si="6"/>
-        <v>14022</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="31" spans="14:17">
@@ -32018,11 +32022,11 @@
       </c>
       <c r="P31" s="23">
         <f t="shared" si="2"/>
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="Q31" s="23">
         <f t="shared" si="6"/>
-        <v>15662</v>
+        <v>15280</v>
       </c>
     </row>
     <row r="32" spans="14:17">
@@ -32035,11 +32039,11 @@
       </c>
       <c r="P32" s="23">
         <f t="shared" si="2"/>
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="Q32" s="23">
         <f t="shared" si="6"/>
-        <v>17302</v>
+        <v>16880</v>
       </c>
     </row>
     <row r="33" spans="14:17">
@@ -32052,11 +32056,11 @@
       </c>
       <c r="P33" s="23">
         <f t="shared" si="2"/>
-        <v>2296</v>
+        <v>2240</v>
       </c>
       <c r="Q33" s="23">
         <f t="shared" si="6"/>
-        <v>18942</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="34" spans="14:17">
@@ -32069,11 +32073,11 @@
       </c>
       <c r="P34" s="23">
         <f t="shared" si="2"/>
-        <v>2296</v>
+        <v>2240</v>
       </c>
       <c r="Q34" s="23">
         <f t="shared" si="6"/>
-        <v>21238</v>
+        <v>20720</v>
       </c>
     </row>
     <row r="35" spans="14:17">
@@ -32086,11 +32090,11 @@
       </c>
       <c r="P35" s="23">
         <f t="shared" si="2"/>
-        <v>2296</v>
+        <v>2240</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="6"/>
-        <v>23534</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="36" spans="14:17">
@@ -32103,11 +32107,11 @@
       </c>
       <c r="P36" s="23">
         <f t="shared" ref="P36:P66" si="7">$G$16*O36</f>
-        <v>2542</v>
+        <v>2480</v>
       </c>
       <c r="Q36" s="23">
         <f t="shared" si="6"/>
-        <v>25830</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="37" spans="14:17">
@@ -32120,11 +32124,11 @@
       </c>
       <c r="P37" s="23">
         <f t="shared" si="7"/>
-        <v>2542</v>
+        <v>2480</v>
       </c>
       <c r="Q37" s="23">
         <f t="shared" si="6"/>
-        <v>28372</v>
+        <v>27680</v>
       </c>
     </row>
     <row r="38" spans="14:17">
@@ -32137,11 +32141,11 @@
       </c>
       <c r="P38" s="23">
         <f t="shared" si="7"/>
-        <v>2542</v>
+        <v>2480</v>
       </c>
       <c r="Q38" s="23">
         <f t="shared" si="6"/>
-        <v>30914</v>
+        <v>30160</v>
       </c>
     </row>
     <row r="39" spans="14:17">
@@ -32154,11 +32158,11 @@
       </c>
       <c r="P39" s="23">
         <f t="shared" si="7"/>
-        <v>3362</v>
+        <v>3280</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="6"/>
-        <v>33456</v>
+        <v>32640</v>
       </c>
     </row>
     <row r="40" spans="14:17">
@@ -32171,11 +32175,11 @@
       </c>
       <c r="P40" s="23">
         <f t="shared" si="7"/>
-        <v>3362</v>
+        <v>3280</v>
       </c>
       <c r="Q40" s="23">
         <f t="shared" si="6"/>
-        <v>36818</v>
+        <v>35920</v>
       </c>
     </row>
     <row r="41" spans="14:17">
@@ -32188,11 +32192,11 @@
       </c>
       <c r="P41" s="23">
         <f t="shared" si="7"/>
-        <v>3362</v>
+        <v>3280</v>
       </c>
       <c r="Q41" s="23">
         <f t="shared" ref="Q41:Q71" si="9">P40+Q40</f>
-        <v>40180</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="42" spans="14:17">
@@ -32205,11 +32209,11 @@
       </c>
       <c r="P42" s="23">
         <f t="shared" si="7"/>
-        <v>3772</v>
+        <v>3680</v>
       </c>
       <c r="Q42" s="23">
         <f t="shared" si="9"/>
-        <v>43542</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="43" spans="14:17">
@@ -32222,11 +32226,11 @@
       </c>
       <c r="P43" s="23">
         <f t="shared" si="7"/>
-        <v>3772</v>
+        <v>3680</v>
       </c>
       <c r="Q43" s="23">
         <f t="shared" si="9"/>
-        <v>47314</v>
+        <v>46160</v>
       </c>
     </row>
     <row r="44" spans="14:17">
@@ -32239,11 +32243,11 @@
       </c>
       <c r="P44" s="23">
         <f t="shared" si="7"/>
-        <v>3772</v>
+        <v>3680</v>
       </c>
       <c r="Q44" s="23">
         <f t="shared" si="9"/>
-        <v>51086</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="45" spans="14:17">
@@ -32256,11 +32260,11 @@
       </c>
       <c r="P45" s="23">
         <f t="shared" si="7"/>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="Q45" s="23">
         <f t="shared" si="9"/>
-        <v>54858</v>
+        <v>53520</v>
       </c>
     </row>
     <row r="46" spans="14:17">
@@ -32273,11 +32277,11 @@
       </c>
       <c r="P46" s="23">
         <f t="shared" si="7"/>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="Q46" s="23">
         <f t="shared" si="9"/>
-        <v>59778</v>
+        <v>58320</v>
       </c>
     </row>
     <row r="47" spans="14:17">
@@ -32290,11 +32294,11 @@
       </c>
       <c r="P47" s="23">
         <f t="shared" si="7"/>
-        <v>4920</v>
+        <v>4800</v>
       </c>
       <c r="Q47" s="23">
         <f t="shared" si="9"/>
-        <v>64698</v>
+        <v>63120</v>
       </c>
     </row>
     <row r="48" spans="14:17">
@@ -32307,11 +32311,11 @@
       </c>
       <c r="P48" s="23">
         <f t="shared" si="7"/>
-        <v>5494</v>
+        <v>5360</v>
       </c>
       <c r="Q48" s="23">
         <f t="shared" si="9"/>
-        <v>69618</v>
+        <v>67920</v>
       </c>
     </row>
     <row r="49" spans="14:17">
@@ -32324,11 +32328,11 @@
       </c>
       <c r="P49" s="23">
         <f t="shared" si="7"/>
-        <v>5494</v>
+        <v>5360</v>
       </c>
       <c r="Q49" s="23">
         <f t="shared" si="9"/>
-        <v>75112</v>
+        <v>73280</v>
       </c>
     </row>
     <row r="50" spans="14:17">
@@ -32341,11 +32345,11 @@
       </c>
       <c r="P50" s="23">
         <f t="shared" si="7"/>
-        <v>5494</v>
+        <v>5360</v>
       </c>
       <c r="Q50" s="23">
         <f t="shared" si="9"/>
-        <v>80606</v>
+        <v>78640</v>
       </c>
     </row>
     <row r="51" spans="14:17">
@@ -32358,11 +32362,11 @@
       </c>
       <c r="P51" s="23">
         <f t="shared" si="7"/>
-        <v>6888</v>
+        <v>6720</v>
       </c>
       <c r="Q51" s="23">
         <f t="shared" si="9"/>
-        <v>86100</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="52" spans="14:17">
@@ -32375,11 +32379,11 @@
       </c>
       <c r="P52" s="23">
         <f t="shared" si="7"/>
-        <v>6888</v>
+        <v>6720</v>
       </c>
       <c r="Q52" s="23">
         <f t="shared" si="9"/>
-        <v>92988</v>
+        <v>90720</v>
       </c>
     </row>
     <row r="53" spans="14:17">
@@ -32392,11 +32396,11 @@
       </c>
       <c r="P53" s="23">
         <f t="shared" si="7"/>
-        <v>6888</v>
+        <v>6720</v>
       </c>
       <c r="Q53" s="23">
         <f t="shared" si="9"/>
-        <v>99876</v>
+        <v>97440</v>
       </c>
     </row>
     <row r="54" spans="14:17">
@@ -32409,11 +32413,11 @@
       </c>
       <c r="P54" s="23">
         <f t="shared" si="7"/>
-        <v>7708</v>
+        <v>7520</v>
       </c>
       <c r="Q54" s="23">
         <f t="shared" si="9"/>
-        <v>106764</v>
+        <v>104160</v>
       </c>
     </row>
     <row r="55" spans="14:17">
@@ -32426,11 +32430,11 @@
       </c>
       <c r="P55" s="23">
         <f t="shared" si="7"/>
-        <v>7708</v>
+        <v>7520</v>
       </c>
       <c r="Q55" s="23">
         <f t="shared" si="9"/>
-        <v>114472</v>
+        <v>111680</v>
       </c>
     </row>
     <row r="56" spans="14:17">
@@ -32443,11 +32447,11 @@
       </c>
       <c r="P56" s="23">
         <f t="shared" si="7"/>
-        <v>7708</v>
+        <v>7520</v>
       </c>
       <c r="Q56" s="23">
         <f t="shared" si="9"/>
-        <v>122180</v>
+        <v>119200</v>
       </c>
     </row>
     <row r="57" spans="14:17">
@@ -32460,11 +32464,11 @@
       </c>
       <c r="P57" s="23">
         <f t="shared" si="7"/>
-        <v>9512</v>
+        <v>9280</v>
       </c>
       <c r="Q57" s="23">
         <f t="shared" si="9"/>
-        <v>129888</v>
+        <v>126720</v>
       </c>
     </row>
     <row r="58" spans="14:17">
@@ -32477,11 +32481,11 @@
       </c>
       <c r="P58" s="23">
         <f t="shared" si="7"/>
-        <v>9512</v>
+        <v>9280</v>
       </c>
       <c r="Q58" s="23">
         <f t="shared" si="9"/>
-        <v>139400</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="59" spans="14:17">
@@ -32494,11 +32498,11 @@
       </c>
       <c r="P59" s="23">
         <f t="shared" si="7"/>
-        <v>9512</v>
+        <v>9280</v>
       </c>
       <c r="Q59" s="23">
         <f t="shared" si="9"/>
-        <v>148912</v>
+        <v>145280</v>
       </c>
     </row>
     <row r="60" spans="14:17">
@@ -32511,11 +32515,11 @@
       </c>
       <c r="P60" s="23">
         <f t="shared" si="7"/>
-        <v>10496</v>
+        <v>10240</v>
       </c>
       <c r="Q60" s="23">
         <f t="shared" si="9"/>
-        <v>158424</v>
+        <v>154560</v>
       </c>
     </row>
     <row r="61" spans="14:17">
@@ -32528,11 +32532,11 @@
       </c>
       <c r="P61" s="23">
         <f t="shared" si="7"/>
-        <v>10496</v>
+        <v>10240</v>
       </c>
       <c r="Q61" s="23">
         <f t="shared" si="9"/>
-        <v>168920</v>
+        <v>164800</v>
       </c>
     </row>
     <row r="62" spans="14:17">
@@ -32545,11 +32549,11 @@
       </c>
       <c r="P62" s="23">
         <f t="shared" si="7"/>
-        <v>10496</v>
+        <v>10240</v>
       </c>
       <c r="Q62" s="23">
         <f t="shared" si="9"/>
-        <v>179416</v>
+        <v>175040</v>
       </c>
     </row>
     <row r="63" spans="14:17">
@@ -32562,11 +32566,11 @@
       </c>
       <c r="P63" s="23">
         <f t="shared" si="7"/>
-        <v>12874</v>
+        <v>12560</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="9"/>
-        <v>189912</v>
+        <v>185280</v>
       </c>
     </row>
     <row r="64" spans="14:17">
@@ -32579,11 +32583,11 @@
       </c>
       <c r="P64" s="23">
         <f t="shared" si="7"/>
-        <v>12874</v>
+        <v>12560</v>
       </c>
       <c r="Q64" s="23">
         <f t="shared" si="9"/>
-        <v>202786</v>
+        <v>197840</v>
       </c>
     </row>
     <row r="65" spans="14:17">
@@ -32596,11 +32600,11 @@
       </c>
       <c r="P65" s="23">
         <f t="shared" si="7"/>
-        <v>12874</v>
+        <v>12560</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="9"/>
-        <v>215660</v>
+        <v>210400</v>
       </c>
     </row>
     <row r="66" spans="14:17">
@@ -32613,11 +32617,11 @@
       </c>
       <c r="P66" s="23">
         <f t="shared" si="7"/>
-        <v>17056</v>
+        <v>16640</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="9"/>
-        <v>228534</v>
+        <v>222960</v>
       </c>
     </row>
     <row r="67" spans="14:17">
@@ -32630,11 +32634,11 @@
       </c>
       <c r="P67" s="23">
         <f t="shared" ref="P67" si="10">$G$16*O67</f>
-        <v>17056</v>
+        <v>16640</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="9"/>
-        <v>245590</v>
+        <v>239600</v>
       </c>
     </row>
     <row r="68" spans="14:17">
@@ -32647,11 +32651,11 @@
       </c>
       <c r="P68" s="23">
         <f t="shared" ref="P68:P99" si="12">$G$16*O68</f>
-        <v>17056</v>
+        <v>16640</v>
       </c>
       <c r="Q68" s="23">
         <f t="shared" si="9"/>
-        <v>262646</v>
+        <v>256240</v>
       </c>
     </row>
     <row r="69" spans="14:17">
@@ -32664,11 +32668,11 @@
       </c>
       <c r="P69" s="23">
         <f t="shared" si="12"/>
-        <v>22058</v>
+        <v>21520</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="9"/>
-        <v>279702</v>
+        <v>272880</v>
       </c>
     </row>
     <row r="70" spans="14:17">
@@ -32681,11 +32685,11 @@
       </c>
       <c r="P70" s="23">
         <f t="shared" si="12"/>
-        <v>22058</v>
+        <v>21520</v>
       </c>
       <c r="Q70" s="23">
         <f t="shared" si="9"/>
-        <v>301760</v>
+        <v>294400</v>
       </c>
     </row>
     <row r="71" spans="14:17">
@@ -32698,11 +32702,11 @@
       </c>
       <c r="P71" s="23">
         <f t="shared" si="12"/>
-        <v>22058</v>
+        <v>21520</v>
       </c>
       <c r="Q71" s="23">
         <f t="shared" si="9"/>
-        <v>323818</v>
+        <v>315920</v>
       </c>
     </row>
     <row r="72" spans="14:17">
@@ -32716,11 +32720,11 @@
       </c>
       <c r="P72" s="23">
         <f t="shared" si="12"/>
-        <v>27798</v>
+        <v>27120</v>
       </c>
       <c r="Q72" s="23">
         <f t="shared" ref="Q72" si="14">P71+Q71</f>
-        <v>345876</v>
+        <v>337440</v>
       </c>
     </row>
     <row r="73" spans="14:17">
@@ -32733,11 +32737,11 @@
       </c>
       <c r="P73" s="23">
         <f t="shared" si="12"/>
-        <v>27798</v>
+        <v>27120</v>
       </c>
       <c r="Q73" s="23">
         <f t="shared" ref="Q73:Q104" si="15">P72+Q72</f>
-        <v>373674</v>
+        <v>364560</v>
       </c>
     </row>
     <row r="74" spans="14:17">
@@ -32751,11 +32755,11 @@
       </c>
       <c r="P74" s="23">
         <f t="shared" si="12"/>
-        <v>27798</v>
+        <v>27120</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="15"/>
-        <v>401472</v>
+        <v>391680</v>
       </c>
     </row>
     <row r="75" spans="14:17">
@@ -32769,11 +32773,11 @@
       </c>
       <c r="P75" s="23">
         <f t="shared" si="12"/>
-        <v>34440</v>
+        <v>33600</v>
       </c>
       <c r="Q75" s="23">
         <f t="shared" si="15"/>
-        <v>429270</v>
+        <v>418800</v>
       </c>
     </row>
     <row r="76" spans="14:17">
@@ -32786,11 +32790,11 @@
       </c>
       <c r="P76" s="23">
         <f t="shared" si="12"/>
-        <v>34440</v>
+        <v>33600</v>
       </c>
       <c r="Q76" s="23">
         <f t="shared" si="15"/>
-        <v>463710</v>
+        <v>452400</v>
       </c>
     </row>
     <row r="77" spans="14:17">
@@ -32804,11 +32808,11 @@
       </c>
       <c r="P77" s="23">
         <f t="shared" si="12"/>
-        <v>34440</v>
+        <v>33600</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="15"/>
-        <v>498150</v>
+        <v>486000</v>
       </c>
     </row>
     <row r="78" spans="14:17">
@@ -32821,11 +32825,11 @@
       </c>
       <c r="P78" s="23">
         <f t="shared" si="12"/>
-        <v>42148</v>
+        <v>41120</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" si="15"/>
-        <v>532590</v>
+        <v>519600</v>
       </c>
     </row>
     <row r="79" spans="14:17">
@@ -32838,11 +32842,11 @@
       </c>
       <c r="P79" s="23">
         <f t="shared" si="12"/>
-        <v>42148</v>
+        <v>41120</v>
       </c>
       <c r="Q79" s="23">
         <f t="shared" si="15"/>
-        <v>574738</v>
+        <v>560720</v>
       </c>
     </row>
     <row r="80" spans="14:17">
@@ -32855,11 +32859,11 @@
       </c>
       <c r="P80" s="23">
         <f t="shared" si="12"/>
-        <v>42148</v>
+        <v>41120</v>
       </c>
       <c r="Q80" s="23">
         <f t="shared" si="15"/>
-        <v>616886</v>
+        <v>601840</v>
       </c>
     </row>
     <row r="81" spans="14:17">
@@ -32872,11 +32876,11 @@
       </c>
       <c r="P81" s="23">
         <f t="shared" si="12"/>
-        <v>69700</v>
+        <v>68000</v>
       </c>
       <c r="Q81" s="23">
         <f t="shared" si="15"/>
-        <v>659034</v>
+        <v>642960</v>
       </c>
     </row>
     <row r="82" spans="14:17">
@@ -32890,11 +32894,11 @@
       </c>
       <c r="P82" s="23">
         <f t="shared" si="12"/>
-        <v>69700</v>
+        <v>68000</v>
       </c>
       <c r="Q82" s="23">
         <f t="shared" si="15"/>
-        <v>728734</v>
+        <v>710960</v>
       </c>
     </row>
     <row r="83" spans="14:17">
@@ -32908,11 +32912,11 @@
       </c>
       <c r="P83" s="23">
         <f t="shared" si="12"/>
-        <v>69700</v>
+        <v>68000</v>
       </c>
       <c r="Q83" s="23">
         <f t="shared" si="15"/>
-        <v>798434</v>
+        <v>778960</v>
       </c>
     </row>
     <row r="84" spans="14:17">
@@ -32926,11 +32930,11 @@
       </c>
       <c r="P84" s="23">
         <f t="shared" si="12"/>
-        <v>76670</v>
+        <v>74800</v>
       </c>
       <c r="Q84" s="23">
         <f t="shared" si="15"/>
-        <v>868134</v>
+        <v>846960</v>
       </c>
     </row>
     <row r="85" spans="14:17">
@@ -32944,11 +32948,11 @@
       </c>
       <c r="P85" s="23">
         <f t="shared" si="12"/>
-        <v>76670</v>
+        <v>74800</v>
       </c>
       <c r="Q85" s="23">
         <f t="shared" si="15"/>
-        <v>944804</v>
+        <v>921760</v>
       </c>
     </row>
     <row r="86" spans="14:17">
@@ -32962,11 +32966,11 @@
       </c>
       <c r="P86" s="23">
         <f t="shared" si="12"/>
-        <v>76670</v>
+        <v>74800</v>
       </c>
       <c r="Q86" s="23">
         <f t="shared" si="15"/>
-        <v>1021474</v>
+        <v>996560</v>
       </c>
     </row>
     <row r="87" spans="14:17">
@@ -32980,11 +32984,11 @@
       </c>
       <c r="P87" s="23">
         <f t="shared" si="12"/>
-        <v>112668</v>
+        <v>109920</v>
       </c>
       <c r="Q87" s="23">
         <f t="shared" si="15"/>
-        <v>1098144</v>
+        <v>1071360</v>
       </c>
     </row>
     <row r="88" spans="14:17">
@@ -32998,11 +33002,11 @@
       </c>
       <c r="P88" s="23">
         <f t="shared" si="12"/>
-        <v>112668</v>
+        <v>109920</v>
       </c>
       <c r="Q88" s="23">
         <f t="shared" si="15"/>
-        <v>1210812</v>
+        <v>1181280</v>
       </c>
     </row>
     <row r="89" spans="14:17">
@@ -33015,11 +33019,11 @@
       </c>
       <c r="P89" s="23">
         <f t="shared" si="12"/>
-        <v>112668</v>
+        <v>109920</v>
       </c>
       <c r="Q89" s="23">
         <f t="shared" si="15"/>
-        <v>1323480</v>
+        <v>1291200</v>
       </c>
     </row>
     <row r="90" spans="14:17">
@@ -33033,11 +33037,11 @@
       </c>
       <c r="P90" s="23">
         <f t="shared" si="12"/>
-        <v>124148</v>
+        <v>121120</v>
       </c>
       <c r="Q90" s="23">
         <f t="shared" si="15"/>
-        <v>1436148</v>
+        <v>1401120</v>
       </c>
     </row>
     <row r="91" spans="14:17">
@@ -33051,11 +33055,11 @@
       </c>
       <c r="P91" s="23">
         <f t="shared" si="12"/>
-        <v>124148</v>
+        <v>121120</v>
       </c>
       <c r="Q91" s="23">
         <f t="shared" si="15"/>
-        <v>1560296</v>
+        <v>1522240</v>
       </c>
     </row>
     <row r="92" spans="14:17">
@@ -33069,11 +33073,11 @@
       </c>
       <c r="P92" s="23">
         <f t="shared" si="12"/>
-        <v>124148</v>
+        <v>121120</v>
       </c>
       <c r="Q92" s="23">
         <f t="shared" si="15"/>
-        <v>1684444</v>
+        <v>1643360</v>
       </c>
     </row>
     <row r="93" spans="14:17">
@@ -33086,11 +33090,11 @@
       </c>
       <c r="P93" s="23">
         <f t="shared" si="12"/>
-        <v>170888</v>
+        <v>166720</v>
       </c>
       <c r="Q93" s="23">
         <f t="shared" si="15"/>
-        <v>1808592</v>
+        <v>1764480</v>
       </c>
     </row>
     <row r="94" spans="14:17">
@@ -33103,11 +33107,11 @@
       </c>
       <c r="P94" s="23">
         <f t="shared" si="12"/>
-        <v>170888</v>
+        <v>166720</v>
       </c>
       <c r="Q94" s="23">
         <f t="shared" si="15"/>
-        <v>1979480</v>
+        <v>1931200</v>
       </c>
     </row>
     <row r="95" spans="14:17">
@@ -33120,11 +33124,11 @@
       </c>
       <c r="P95" s="23">
         <f t="shared" si="12"/>
-        <v>170888</v>
+        <v>166720</v>
       </c>
       <c r="Q95" s="23">
         <f t="shared" si="15"/>
-        <v>2150368</v>
+        <v>2097920</v>
       </c>
     </row>
     <row r="96" spans="14:17">
@@ -33137,11 +33141,11 @@
       </c>
       <c r="P96" s="23">
         <f t="shared" si="12"/>
-        <v>225500</v>
+        <v>220000</v>
       </c>
       <c r="Q96" s="23">
         <f t="shared" si="15"/>
-        <v>2321256</v>
+        <v>2264640</v>
       </c>
     </row>
     <row r="97" spans="14:17">
@@ -33154,11 +33158,11 @@
       </c>
       <c r="P97" s="23">
         <f t="shared" si="12"/>
-        <v>225500</v>
+        <v>220000</v>
       </c>
       <c r="Q97" s="23">
         <f t="shared" si="15"/>
-        <v>2546756</v>
+        <v>2484640</v>
       </c>
     </row>
     <row r="98" spans="14:17">
@@ -33171,11 +33175,11 @@
       </c>
       <c r="P98" s="23">
         <f t="shared" si="12"/>
-        <v>225500</v>
+        <v>220000</v>
       </c>
       <c r="Q98" s="23">
         <f t="shared" si="15"/>
-        <v>2772256</v>
+        <v>2704640</v>
       </c>
     </row>
     <row r="99" spans="14:17">
@@ -33188,11 +33192,11 @@
       </c>
       <c r="P99" s="23">
         <f t="shared" si="12"/>
-        <v>289870</v>
+        <v>282800</v>
       </c>
       <c r="Q99" s="23">
         <f t="shared" si="15"/>
-        <v>2997756</v>
+        <v>2924640</v>
       </c>
     </row>
     <row r="100" spans="14:17">
@@ -33205,11 +33209,11 @@
       </c>
       <c r="P100" s="23">
         <f t="shared" ref="P100:P130" si="17">$G$16*O100</f>
-        <v>289870</v>
+        <v>282800</v>
       </c>
       <c r="Q100" s="23">
         <f t="shared" si="15"/>
-        <v>3287626</v>
+        <v>3207440</v>
       </c>
     </row>
     <row r="101" spans="14:17">
@@ -33222,11 +33226,11 @@
       </c>
       <c r="P101" s="23">
         <f t="shared" si="17"/>
-        <v>289870</v>
+        <v>282800</v>
       </c>
       <c r="Q101" s="23">
         <f t="shared" si="15"/>
-        <v>3577496</v>
+        <v>3490240</v>
       </c>
     </row>
     <row r="102" spans="14:17">
@@ -33239,11 +33243,11 @@
       </c>
       <c r="P102" s="23">
         <f t="shared" si="17"/>
-        <v>365228</v>
+        <v>356320</v>
       </c>
       <c r="Q102" s="23">
         <f t="shared" si="15"/>
-        <v>3867366</v>
+        <v>3773040</v>
       </c>
     </row>
     <row r="103" spans="14:17">
@@ -33256,11 +33260,11 @@
       </c>
       <c r="P103" s="23">
         <f t="shared" si="17"/>
-        <v>365228</v>
+        <v>356320</v>
       </c>
       <c r="Q103" s="23">
         <f t="shared" si="15"/>
-        <v>4232594</v>
+        <v>4129360</v>
       </c>
     </row>
     <row r="104" spans="14:17">
@@ -33273,11 +33277,11 @@
       </c>
       <c r="P104" s="23">
         <f t="shared" si="17"/>
-        <v>365228</v>
+        <v>356320</v>
       </c>
       <c r="Q104" s="23">
         <f t="shared" si="15"/>
-        <v>4597822</v>
+        <v>4485680</v>
       </c>
     </row>
     <row r="105" spans="14:17">
@@ -33290,11 +33294,11 @@
       </c>
       <c r="P105" s="23">
         <f t="shared" si="17"/>
-        <v>452640</v>
+        <v>441600</v>
       </c>
       <c r="Q105" s="23">
         <f t="shared" ref="Q105:Q135" si="19">P104+Q104</f>
-        <v>4963050</v>
+        <v>4842000</v>
       </c>
     </row>
     <row r="106" spans="14:17">
@@ -33307,11 +33311,11 @@
       </c>
       <c r="P106" s="23">
         <f t="shared" si="17"/>
-        <v>452640</v>
+        <v>441600</v>
       </c>
       <c r="Q106" s="23">
         <f t="shared" si="19"/>
-        <v>5415690</v>
+        <v>5283600</v>
       </c>
     </row>
     <row r="107" spans="14:17">
@@ -33324,11 +33328,11 @@
       </c>
       <c r="P107" s="23">
         <f t="shared" si="17"/>
-        <v>452640</v>
+        <v>441600</v>
       </c>
       <c r="Q107" s="23">
         <f t="shared" si="19"/>
-        <v>5868330</v>
+        <v>5725200</v>
       </c>
     </row>
     <row r="108" spans="14:17">
@@ -33341,11 +33345,11 @@
       </c>
       <c r="P108" s="23">
         <f t="shared" si="17"/>
-        <v>553500</v>
+        <v>540000</v>
       </c>
       <c r="Q108" s="23">
         <f t="shared" si="19"/>
-        <v>6320970</v>
+        <v>6166800</v>
       </c>
     </row>
     <row r="109" spans="14:17">
@@ -33358,11 +33362,11 @@
       </c>
       <c r="P109" s="23">
         <f t="shared" si="17"/>
-        <v>553500</v>
+        <v>540000</v>
       </c>
       <c r="Q109" s="23">
         <f t="shared" si="19"/>
-        <v>6874470</v>
+        <v>6706800</v>
       </c>
     </row>
     <row r="110" spans="14:17">
@@ -33375,11 +33379,11 @@
       </c>
       <c r="P110" s="23">
         <f t="shared" si="17"/>
-        <v>553500</v>
+        <v>540000</v>
       </c>
       <c r="Q110" s="23">
         <f t="shared" si="19"/>
-        <v>7427970</v>
+        <v>7246800</v>
       </c>
     </row>
     <row r="111" spans="14:17">
@@ -33392,11 +33396,11 @@
       </c>
       <c r="P111" s="23">
         <f t="shared" si="17"/>
-        <v>609588</v>
+        <v>594720</v>
       </c>
       <c r="Q111" s="23">
         <f t="shared" si="19"/>
-        <v>7981470</v>
+        <v>7786800</v>
       </c>
     </row>
     <row r="112" spans="14:17">
@@ -33409,11 +33413,11 @@
       </c>
       <c r="P112" s="23">
         <f t="shared" si="17"/>
-        <v>609588</v>
+        <v>594720</v>
       </c>
       <c r="Q112" s="23">
         <f t="shared" si="19"/>
-        <v>8591058</v>
+        <v>8381520</v>
       </c>
     </row>
     <row r="113" spans="14:17">
@@ -33426,11 +33430,11 @@
       </c>
       <c r="P113" s="23">
         <f t="shared" si="17"/>
-        <v>609588</v>
+        <v>594720</v>
       </c>
       <c r="Q113" s="23">
         <f t="shared" si="19"/>
-        <v>9200646</v>
+        <v>8976240</v>
       </c>
     </row>
     <row r="114" spans="14:17">
@@ -33443,11 +33447,11 @@
       </c>
       <c r="P114" s="23">
         <f t="shared" si="17"/>
-        <v>671088</v>
+        <v>654720</v>
       </c>
       <c r="Q114" s="23">
         <f t="shared" si="19"/>
-        <v>9810234</v>
+        <v>9570960</v>
       </c>
     </row>
     <row r="115" spans="14:17">
@@ -33460,11 +33464,11 @@
       </c>
       <c r="P115" s="23">
         <f t="shared" si="17"/>
-        <v>671088</v>
+        <v>654720</v>
       </c>
       <c r="Q115" s="23">
         <f t="shared" si="19"/>
-        <v>10481322</v>
+        <v>10225680</v>
       </c>
     </row>
     <row r="116" spans="14:17">
@@ -33477,11 +33481,11 @@
       </c>
       <c r="P116" s="23">
         <f t="shared" si="17"/>
-        <v>671088</v>
+        <v>654720</v>
       </c>
       <c r="Q116" s="23">
         <f t="shared" si="19"/>
-        <v>11152410</v>
+        <v>10880400</v>
       </c>
     </row>
     <row r="117" spans="14:17">
@@ -33494,11 +33498,11 @@
       </c>
       <c r="P117" s="23">
         <f t="shared" si="17"/>
-        <v>739394</v>
+        <v>721360</v>
       </c>
       <c r="Q117" s="23">
         <f t="shared" si="19"/>
-        <v>11823498</v>
+        <v>11535120</v>
       </c>
     </row>
     <row r="118" spans="14:17">
@@ -33511,11 +33515,11 @@
       </c>
       <c r="P118" s="23">
         <f t="shared" si="17"/>
-        <v>739394</v>
+        <v>721360</v>
       </c>
       <c r="Q118" s="23">
         <f t="shared" si="19"/>
-        <v>12562892</v>
+        <v>12256480</v>
       </c>
     </row>
     <row r="119" spans="14:17">
@@ -33528,11 +33532,11 @@
       </c>
       <c r="P119" s="23">
         <f t="shared" si="17"/>
-        <v>739394</v>
+        <v>721360</v>
       </c>
       <c r="Q119" s="23">
         <f t="shared" si="19"/>
-        <v>13302286</v>
+        <v>12977840</v>
       </c>
     </row>
     <row r="120" spans="14:17">
@@ -33545,11 +33549,11 @@
       </c>
       <c r="P120" s="23">
         <f t="shared" si="17"/>
-        <v>814588</v>
+        <v>794720</v>
       </c>
       <c r="Q120" s="23">
         <f t="shared" si="19"/>
-        <v>14041680</v>
+        <v>13699200</v>
       </c>
     </row>
     <row r="121" spans="14:17">
@@ -33562,11 +33566,11 @@
       </c>
       <c r="P121" s="23">
         <f t="shared" si="17"/>
-        <v>814588</v>
+        <v>794720</v>
       </c>
       <c r="Q121" s="23">
         <f t="shared" si="19"/>
-        <v>14856268</v>
+        <v>14493920</v>
       </c>
     </row>
     <row r="122" spans="14:17">
@@ -33579,11 +33583,11 @@
       </c>
       <c r="P122" s="23">
         <f t="shared" si="17"/>
-        <v>814588</v>
+        <v>794720</v>
       </c>
       <c r="Q122" s="23">
         <f t="shared" si="19"/>
-        <v>15670856</v>
+        <v>15288640</v>
       </c>
     </row>
     <row r="123" spans="14:17">
@@ -33596,11 +33600,11 @@
       </c>
       <c r="P123" s="23">
         <f t="shared" si="17"/>
-        <v>896588</v>
+        <v>874720</v>
       </c>
       <c r="Q123" s="23">
         <f t="shared" si="19"/>
-        <v>16485444</v>
+        <v>16083360</v>
       </c>
     </row>
     <row r="124" spans="14:17">
@@ -33613,11 +33617,11 @@
       </c>
       <c r="P124" s="23">
         <f t="shared" si="17"/>
-        <v>896588</v>
+        <v>874720</v>
       </c>
       <c r="Q124" s="23">
         <f t="shared" si="19"/>
-        <v>17382032</v>
+        <v>16958080</v>
       </c>
     </row>
     <row r="125" spans="14:17">
@@ -33630,11 +33634,11 @@
       </c>
       <c r="P125" s="23">
         <f t="shared" si="17"/>
-        <v>896588</v>
+        <v>874720</v>
       </c>
       <c r="Q125" s="23">
         <f t="shared" si="19"/>
-        <v>18278620</v>
+        <v>17832800</v>
       </c>
     </row>
     <row r="126" spans="14:17">
@@ -33647,11 +33651,11 @@
       </c>
       <c r="P126" s="23">
         <f t="shared" si="17"/>
-        <v>986788</v>
+        <v>962720</v>
       </c>
       <c r="Q126" s="23">
         <f t="shared" si="19"/>
-        <v>19175208</v>
+        <v>18707520</v>
       </c>
     </row>
     <row r="127" spans="14:17">
@@ -33664,11 +33668,11 @@
       </c>
       <c r="P127" s="23">
         <f t="shared" si="17"/>
-        <v>986788</v>
+        <v>962720</v>
       </c>
       <c r="Q127" s="23">
         <f t="shared" si="19"/>
-        <v>20161996</v>
+        <v>19670240</v>
       </c>
     </row>
     <row r="128" spans="14:17">
@@ -33681,11 +33685,11 @@
       </c>
       <c r="P128" s="23">
         <f t="shared" si="17"/>
-        <v>986788</v>
+        <v>962720</v>
       </c>
       <c r="Q128" s="23">
         <f t="shared" si="19"/>
-        <v>21148784</v>
+        <v>20632960</v>
       </c>
     </row>
     <row r="129" spans="14:17">
@@ -33698,11 +33702,11 @@
       </c>
       <c r="P129" s="23">
         <f t="shared" si="17"/>
-        <v>1086500</v>
+        <v>1060000</v>
       </c>
       <c r="Q129" s="23">
         <f t="shared" si="19"/>
-        <v>22135572</v>
+        <v>21595680</v>
       </c>
     </row>
     <row r="130" spans="14:17">
@@ -33715,11 +33719,11 @@
       </c>
       <c r="P130" s="23">
         <f t="shared" si="17"/>
-        <v>1086500</v>
+        <v>1060000</v>
       </c>
       <c r="Q130" s="23">
         <f t="shared" si="19"/>
-        <v>23222072</v>
+        <v>22655680</v>
       </c>
     </row>
     <row r="131" spans="14:17">
@@ -33732,11 +33736,11 @@
       </c>
       <c r="P131" s="23">
         <f t="shared" ref="P131" si="20">$G$16*O131</f>
-        <v>1086500</v>
+        <v>1060000</v>
       </c>
       <c r="Q131" s="23">
         <f t="shared" si="19"/>
-        <v>24308572</v>
+        <v>23715680</v>
       </c>
     </row>
     <row r="132" spans="14:17">
@@ -33749,11 +33753,11 @@
       </c>
       <c r="P132" s="23">
         <f t="shared" ref="P132:P163" si="22">$G$16*O132</f>
-        <v>1195888</v>
+        <v>1166720</v>
       </c>
       <c r="Q132" s="23">
         <f t="shared" si="19"/>
-        <v>25395072</v>
+        <v>24775680</v>
       </c>
     </row>
     <row r="133" spans="14:17">
@@ -33766,11 +33770,11 @@
       </c>
       <c r="P133" s="23">
         <f t="shared" si="22"/>
-        <v>1195888</v>
+        <v>1166720</v>
       </c>
       <c r="Q133" s="23">
         <f t="shared" si="19"/>
-        <v>26590960</v>
+        <v>25942400</v>
       </c>
     </row>
     <row r="134" spans="14:17">
@@ -33783,11 +33787,11 @@
       </c>
       <c r="P134" s="23">
         <f t="shared" si="22"/>
-        <v>1195888</v>
+        <v>1166720</v>
       </c>
       <c r="Q134" s="23">
         <f t="shared" si="19"/>
-        <v>27786848</v>
+        <v>27109120</v>
       </c>
     </row>
     <row r="135" spans="14:17">
@@ -33800,11 +33804,11 @@
       </c>
       <c r="P135" s="23">
         <f t="shared" si="22"/>
-        <v>1316100</v>
+        <v>1284000</v>
       </c>
       <c r="Q135" s="23">
         <f t="shared" si="19"/>
-        <v>28982736</v>
+        <v>28275840</v>
       </c>
     </row>
     <row r="136" spans="14:17">
@@ -33817,11 +33821,11 @@
       </c>
       <c r="P136" s="23">
         <f t="shared" si="22"/>
-        <v>1316100</v>
+        <v>1284000</v>
       </c>
       <c r="Q136" s="23">
         <f t="shared" ref="Q136" si="24">P135+Q135</f>
-        <v>30298836</v>
+        <v>29559840</v>
       </c>
     </row>
     <row r="137" spans="14:17">
@@ -33834,11 +33838,11 @@
       </c>
       <c r="P137" s="23">
         <f t="shared" si="22"/>
-        <v>1316100</v>
+        <v>1284000</v>
       </c>
       <c r="Q137" s="23">
         <f t="shared" ref="Q137:Q168" si="25">P136+Q136</f>
-        <v>31614936</v>
+        <v>30843840</v>
       </c>
     </row>
     <row r="138" spans="14:17">
@@ -33851,11 +33855,11 @@
       </c>
       <c r="P138" s="23">
         <f t="shared" si="22"/>
-        <v>1448694</v>
+        <v>1413360</v>
       </c>
       <c r="Q138" s="23">
         <f t="shared" si="25"/>
-        <v>32931036</v>
+        <v>32127840</v>
       </c>
     </row>
     <row r="139" spans="14:17">
@@ -33868,11 +33872,11 @@
       </c>
       <c r="P139" s="23">
         <f t="shared" si="22"/>
-        <v>1448694</v>
+        <v>1413360</v>
       </c>
       <c r="Q139" s="23">
         <f t="shared" si="25"/>
-        <v>34379730</v>
+        <v>33541200</v>
       </c>
     </row>
     <row r="140" spans="14:17">
@@ -33885,11 +33889,11 @@
       </c>
       <c r="P140" s="23">
         <f t="shared" si="22"/>
-        <v>1448694</v>
+        <v>1413360</v>
       </c>
       <c r="Q140" s="23">
         <f t="shared" si="25"/>
-        <v>35828424</v>
+        <v>34954560</v>
       </c>
     </row>
     <row r="141" spans="14:17">
@@ -33902,11 +33906,11 @@
       </c>
       <c r="P141" s="23">
         <f t="shared" si="22"/>
-        <v>1593588</v>
+        <v>1554720</v>
       </c>
       <c r="Q141" s="23">
         <f t="shared" si="25"/>
-        <v>37277118</v>
+        <v>36367920</v>
       </c>
     </row>
     <row r="142" spans="14:17">
@@ -33919,11 +33923,11 @@
       </c>
       <c r="P142" s="23">
         <f t="shared" si="22"/>
-        <v>1593588</v>
+        <v>1554720</v>
       </c>
       <c r="Q142" s="23">
         <f t="shared" si="25"/>
-        <v>38870706</v>
+        <v>37922640</v>
       </c>
     </row>
     <row r="143" spans="14:17">
@@ -33936,11 +33940,11 @@
       </c>
       <c r="P143" s="23">
         <f t="shared" si="22"/>
-        <v>1593588</v>
+        <v>1554720</v>
       </c>
       <c r="Q143" s="23">
         <f t="shared" si="25"/>
-        <v>40464294</v>
+        <v>39477360</v>
       </c>
     </row>
     <row r="144" spans="14:17">
@@ -33953,11 +33957,11 @@
       </c>
       <c r="P144" s="23">
         <f t="shared" si="22"/>
-        <v>1753488</v>
+        <v>1710720</v>
       </c>
       <c r="Q144" s="23">
         <f t="shared" si="25"/>
-        <v>42057882</v>
+        <v>41032080</v>
       </c>
     </row>
     <row r="145" spans="14:17">
@@ -33970,11 +33974,11 @@
       </c>
       <c r="P145" s="23">
         <f t="shared" si="22"/>
-        <v>1753488</v>
+        <v>1710720</v>
       </c>
       <c r="Q145" s="23">
         <f t="shared" si="25"/>
-        <v>43811370</v>
+        <v>42742800</v>
       </c>
     </row>
     <row r="146" spans="14:17">
@@ -33987,11 +33991,11 @@
       </c>
       <c r="P146" s="23">
         <f t="shared" si="22"/>
-        <v>1753488</v>
+        <v>1710720</v>
       </c>
       <c r="Q146" s="23">
         <f t="shared" si="25"/>
-        <v>45564858</v>
+        <v>44453520</v>
       </c>
     </row>
     <row r="147" spans="14:17">
@@ -34004,11 +34008,11 @@
       </c>
       <c r="P147" s="23">
         <f t="shared" si="22"/>
-        <v>1929788</v>
+        <v>1882720</v>
       </c>
       <c r="Q147" s="23">
         <f t="shared" si="25"/>
-        <v>47318346</v>
+        <v>46164240</v>
       </c>
     </row>
     <row r="148" spans="14:17">
@@ -34021,11 +34025,11 @@
       </c>
       <c r="P148" s="23">
         <f t="shared" si="22"/>
-        <v>1929788</v>
+        <v>1882720</v>
       </c>
       <c r="Q148" s="23">
         <f t="shared" si="25"/>
-        <v>49248134</v>
+        <v>48046960</v>
       </c>
     </row>
     <row r="149" spans="14:17">
@@ -34038,11 +34042,11 @@
       </c>
       <c r="P149" s="23">
         <f t="shared" si="22"/>
-        <v>1929788</v>
+        <v>1882720</v>
       </c>
       <c r="Q149" s="23">
         <f t="shared" si="25"/>
-        <v>51177922</v>
+        <v>49929680</v>
       </c>
     </row>
     <row r="150" spans="14:17">
@@ -34055,11 +34059,11 @@
       </c>
       <c r="P150" s="23">
         <f t="shared" si="22"/>
-        <v>2123800</v>
+        <v>2072000</v>
       </c>
       <c r="Q150" s="23">
         <f t="shared" si="25"/>
-        <v>53107710</v>
+        <v>51812400</v>
       </c>
     </row>
     <row r="151" spans="14:17">
@@ -34072,11 +34076,11 @@
       </c>
       <c r="P151" s="23">
         <f t="shared" si="22"/>
-        <v>2123800</v>
+        <v>2072000</v>
       </c>
       <c r="Q151" s="23">
         <f t="shared" si="25"/>
-        <v>55231510</v>
+        <v>53884400</v>
       </c>
     </row>
     <row r="152" spans="14:17">
@@ -34089,11 +34093,11 @@
       </c>
       <c r="P152" s="23">
         <f t="shared" si="22"/>
-        <v>2123800</v>
+        <v>2072000</v>
       </c>
       <c r="Q152" s="23">
         <f t="shared" si="25"/>
-        <v>57355310</v>
+        <v>55956400</v>
       </c>
     </row>
     <row r="153" spans="14:17">
@@ -34106,11 +34110,11 @@
       </c>
       <c r="P153" s="23">
         <f t="shared" si="22"/>
-        <v>2167588</v>
+        <v>2114720</v>
       </c>
       <c r="Q153" s="23">
         <f t="shared" si="25"/>
-        <v>59479110</v>
+        <v>58028400</v>
       </c>
     </row>
     <row r="154" spans="14:17">
@@ -34123,11 +34127,11 @@
       </c>
       <c r="P154" s="23">
         <f t="shared" si="22"/>
-        <v>2167588</v>
+        <v>2114720</v>
       </c>
       <c r="Q154" s="23">
         <f t="shared" si="25"/>
-        <v>61646698</v>
+        <v>60143120</v>
       </c>
     </row>
     <row r="155" spans="14:17">
@@ -34140,11 +34144,11 @@
       </c>
       <c r="P155" s="23">
         <f t="shared" si="22"/>
-        <v>2167588</v>
+        <v>2114720</v>
       </c>
       <c r="Q155" s="23">
         <f t="shared" si="25"/>
-        <v>63814286</v>
+        <v>62257840</v>
       </c>
     </row>
     <row r="156" spans="14:17">
@@ -34157,11 +34161,11 @@
       </c>
       <c r="P156" s="23">
         <f t="shared" si="22"/>
-        <v>2211294</v>
+        <v>2157360</v>
       </c>
       <c r="Q156" s="23">
         <f t="shared" si="25"/>
-        <v>65981874</v>
+        <v>64372560</v>
       </c>
     </row>
     <row r="157" spans="14:17">
@@ -34174,11 +34178,11 @@
       </c>
       <c r="P157" s="23">
         <f t="shared" si="22"/>
-        <v>2211294</v>
+        <v>2157360</v>
       </c>
       <c r="Q157" s="23">
         <f t="shared" si="25"/>
-        <v>68193168</v>
+        <v>66529920</v>
       </c>
     </row>
     <row r="158" spans="14:17">
@@ -34191,11 +34195,11 @@
       </c>
       <c r="P158" s="23">
         <f t="shared" si="22"/>
-        <v>2211294</v>
+        <v>2157360</v>
       </c>
       <c r="Q158" s="23">
         <f t="shared" si="25"/>
-        <v>70404462</v>
+        <v>68687280</v>
       </c>
     </row>
     <row r="159" spans="14:17">
@@ -34208,11 +34212,11 @@
       </c>
       <c r="P159" s="23">
         <f t="shared" si="22"/>
-        <v>2256394</v>
+        <v>2201360</v>
       </c>
       <c r="Q159" s="23">
         <f t="shared" si="25"/>
-        <v>72615756</v>
+        <v>70844640</v>
       </c>
     </row>
     <row r="160" spans="14:17">
@@ -34225,11 +34229,11 @@
       </c>
       <c r="P160" s="23">
         <f t="shared" si="22"/>
-        <v>2256394</v>
+        <v>2201360</v>
       </c>
       <c r="Q160" s="23">
         <f t="shared" si="25"/>
-        <v>74872150</v>
+        <v>73046000</v>
       </c>
     </row>
     <row r="161" spans="14:17">
@@ -34242,11 +34246,11 @@
       </c>
       <c r="P161" s="23">
         <f t="shared" si="22"/>
-        <v>2256394</v>
+        <v>2201360</v>
       </c>
       <c r="Q161" s="23">
         <f t="shared" si="25"/>
-        <v>77128544</v>
+        <v>75247360</v>
       </c>
     </row>
     <row r="162" spans="14:17">
@@ -34259,11 +34263,11 @@
       </c>
       <c r="P162" s="23">
         <f t="shared" si="22"/>
-        <v>2302888</v>
+        <v>2246720</v>
       </c>
       <c r="Q162" s="23">
         <f t="shared" si="25"/>
-        <v>79384938</v>
+        <v>77448720</v>
       </c>
     </row>
     <row r="163" spans="14:17">
@@ -34276,11 +34280,11 @@
       </c>
       <c r="P163" s="23">
         <f t="shared" si="22"/>
-        <v>2302888</v>
+        <v>2246720</v>
       </c>
       <c r="Q163" s="23">
         <f t="shared" si="25"/>
-        <v>81687826</v>
+        <v>79695440</v>
       </c>
     </row>
     <row r="164" spans="14:17">
@@ -34293,11 +34297,11 @@
       </c>
       <c r="P164" s="23">
         <f t="shared" ref="P164:P194" si="26">$G$16*O164</f>
-        <v>2302888</v>
+        <v>2246720</v>
       </c>
       <c r="Q164" s="23">
         <f t="shared" si="25"/>
-        <v>83990714</v>
+        <v>81942160</v>
       </c>
     </row>
     <row r="165" spans="14:17">
@@ -34310,11 +34314,11 @@
       </c>
       <c r="P165" s="23">
         <f t="shared" si="26"/>
-        <v>2349300</v>
+        <v>2292000</v>
       </c>
       <c r="Q165" s="23">
         <f t="shared" si="25"/>
-        <v>86293602</v>
+        <v>84188880</v>
       </c>
     </row>
     <row r="166" spans="14:17">
@@ -34327,11 +34331,11 @@
       </c>
       <c r="P166" s="23">
         <f t="shared" si="26"/>
-        <v>2349300</v>
+        <v>2292000</v>
       </c>
       <c r="Q166" s="23">
         <f t="shared" si="25"/>
-        <v>88642902</v>
+        <v>86480880</v>
       </c>
     </row>
     <row r="167" spans="14:17">
@@ -34344,11 +34348,11 @@
       </c>
       <c r="P167" s="23">
         <f t="shared" si="26"/>
-        <v>2349300</v>
+        <v>2292000</v>
       </c>
       <c r="Q167" s="23">
         <f t="shared" si="25"/>
-        <v>90992202</v>
+        <v>88772880</v>
       </c>
     </row>
     <row r="168" spans="14:17">
@@ -34361,11 +34365,11 @@
       </c>
       <c r="P168" s="23">
         <f t="shared" si="26"/>
-        <v>2397188</v>
+        <v>2338720</v>
       </c>
       <c r="Q168" s="23">
         <f t="shared" si="25"/>
-        <v>93341502</v>
+        <v>91064880</v>
       </c>
     </row>
     <row r="169" spans="14:17">
@@ -34378,11 +34382,11 @@
       </c>
       <c r="P169" s="23">
         <f t="shared" si="26"/>
-        <v>2397188</v>
+        <v>2338720</v>
       </c>
       <c r="Q169" s="23">
         <f t="shared" ref="Q169:Q199" si="28">P168+Q168</f>
-        <v>95738690</v>
+        <v>93403600</v>
       </c>
     </row>
     <row r="170" spans="14:17">
@@ -34395,11 +34399,11 @@
       </c>
       <c r="P170" s="23">
         <f t="shared" si="26"/>
-        <v>2397188</v>
+        <v>2338720</v>
       </c>
       <c r="Q170" s="23">
         <f t="shared" si="28"/>
-        <v>98135878</v>
+        <v>95742320</v>
       </c>
     </row>
     <row r="171" spans="14:17">
@@ -34412,11 +34416,11 @@
       </c>
       <c r="P171" s="23">
         <f t="shared" si="26"/>
-        <v>2446388</v>
+        <v>2386720</v>
       </c>
       <c r="Q171" s="23">
         <f t="shared" si="28"/>
-        <v>100533066</v>
+        <v>98081040</v>
       </c>
     </row>
     <row r="172" spans="14:17">
@@ -34429,11 +34433,11 @@
       </c>
       <c r="P172" s="23">
         <f t="shared" si="26"/>
-        <v>2446388</v>
+        <v>2386720</v>
       </c>
       <c r="Q172" s="23">
         <f t="shared" si="28"/>
-        <v>102979454</v>
+        <v>100467760</v>
       </c>
     </row>
     <row r="173" spans="14:17">
@@ -34446,11 +34450,11 @@
       </c>
       <c r="P173" s="23">
         <f t="shared" si="26"/>
-        <v>2446388</v>
+        <v>2386720</v>
       </c>
       <c r="Q173" s="23">
         <f t="shared" si="28"/>
-        <v>105425842</v>
+        <v>102854480</v>
       </c>
     </row>
     <row r="174" spans="14:17">
@@ -34463,11 +34467,11 @@
       </c>
       <c r="P174" s="23">
         <f t="shared" si="26"/>
-        <v>2495588</v>
+        <v>2434720</v>
       </c>
       <c r="Q174" s="23">
         <f t="shared" si="28"/>
-        <v>107872230</v>
+        <v>105241200</v>
       </c>
     </row>
     <row r="175" spans="14:17">
@@ -34480,11 +34484,11 @@
       </c>
       <c r="P175" s="23">
         <f t="shared" si="26"/>
-        <v>2495588</v>
+        <v>2434720</v>
       </c>
       <c r="Q175" s="23">
         <f t="shared" si="28"/>
-        <v>110367818</v>
+        <v>107675920</v>
       </c>
     </row>
     <row r="176" spans="14:17">
@@ -34497,11 +34501,11 @@
       </c>
       <c r="P176" s="23">
         <f t="shared" si="26"/>
-        <v>2495588</v>
+        <v>2434720</v>
       </c>
       <c r="Q176" s="23">
         <f t="shared" si="28"/>
-        <v>112863406</v>
+        <v>110110640</v>
       </c>
     </row>
     <row r="177" spans="14:17">
@@ -34514,11 +34518,11 @@
       </c>
       <c r="P177" s="23">
         <f t="shared" si="26"/>
-        <v>2546100</v>
+        <v>2484000</v>
       </c>
       <c r="Q177" s="23">
         <f t="shared" si="28"/>
-        <v>115358994</v>
+        <v>112545360</v>
       </c>
     </row>
     <row r="178" spans="14:17">
@@ -34531,11 +34535,11 @@
       </c>
       <c r="P178" s="23">
         <f t="shared" si="26"/>
-        <v>2546100</v>
+        <v>2484000</v>
       </c>
       <c r="Q178" s="23">
         <f t="shared" si="28"/>
-        <v>117905094</v>
+        <v>115029360</v>
       </c>
     </row>
     <row r="179" spans="14:17">
@@ -34548,11 +34552,11 @@
       </c>
       <c r="P179" s="23">
         <f t="shared" si="26"/>
-        <v>2546100</v>
+        <v>2484000</v>
       </c>
       <c r="Q179" s="23">
         <f t="shared" si="28"/>
-        <v>120451194</v>
+        <v>117513360</v>
       </c>
     </row>
     <row r="180" spans="14:17">
@@ -34565,11 +34569,11 @@
       </c>
       <c r="P180" s="23">
         <f t="shared" si="26"/>
-        <v>2598088</v>
+        <v>2534720</v>
       </c>
       <c r="Q180" s="23">
         <f t="shared" si="28"/>
-        <v>122997294</v>
+        <v>119997360</v>
       </c>
     </row>
     <row r="181" spans="14:17">
@@ -34582,11 +34586,11 @@
       </c>
       <c r="P181" s="23">
         <f t="shared" si="26"/>
-        <v>2598088</v>
+        <v>2534720</v>
       </c>
       <c r="Q181" s="23">
         <f t="shared" si="28"/>
-        <v>125595382</v>
+        <v>122532080</v>
       </c>
     </row>
     <row r="182" spans="14:17">
@@ -34599,11 +34603,11 @@
       </c>
       <c r="P182" s="23">
         <f t="shared" si="26"/>
-        <v>2598088</v>
+        <v>2534720</v>
       </c>
       <c r="Q182" s="23">
         <f t="shared" si="28"/>
-        <v>128193470</v>
+        <v>125066800</v>
       </c>
     </row>
     <row r="183" spans="14:17">
@@ -34616,11 +34620,11 @@
       </c>
       <c r="P183" s="23">
         <f t="shared" si="26"/>
-        <v>2651388</v>
+        <v>2586720</v>
       </c>
       <c r="Q183" s="23">
         <f t="shared" si="28"/>
-        <v>130791558</v>
+        <v>127601520</v>
       </c>
     </row>
     <row r="184" spans="14:17">
@@ -34633,11 +34637,11 @@
       </c>
       <c r="P184" s="23">
         <f t="shared" si="26"/>
-        <v>2651388</v>
+        <v>2586720</v>
       </c>
       <c r="Q184" s="23">
         <f t="shared" si="28"/>
-        <v>133442946</v>
+        <v>130188240</v>
       </c>
     </row>
     <row r="185" spans="14:17">
@@ -34650,11 +34654,11 @@
       </c>
       <c r="P185" s="23">
         <f t="shared" si="26"/>
-        <v>2651388</v>
+        <v>2586720</v>
       </c>
       <c r="Q185" s="23">
         <f t="shared" si="28"/>
-        <v>136094334</v>
+        <v>132774960</v>
       </c>
     </row>
     <row r="186" spans="14:17">
@@ -34667,11 +34671,11 @@
       </c>
       <c r="P186" s="23">
         <f t="shared" si="26"/>
-        <v>2704688</v>
+        <v>2638720</v>
       </c>
       <c r="Q186" s="23">
         <f t="shared" si="28"/>
-        <v>138745722</v>
+        <v>135361680</v>
       </c>
     </row>
     <row r="187" spans="14:17">
@@ -34684,11 +34688,11 @@
       </c>
       <c r="P187" s="23">
         <f t="shared" si="26"/>
-        <v>2704688</v>
+        <v>2638720</v>
       </c>
       <c r="Q187" s="23">
         <f t="shared" si="28"/>
-        <v>141450410</v>
+        <v>138000400</v>
       </c>
     </row>
     <row r="188" spans="14:17">
@@ -34701,11 +34705,11 @@
       </c>
       <c r="P188" s="23">
         <f t="shared" si="26"/>
-        <v>2704688</v>
+        <v>2638720</v>
       </c>
       <c r="Q188" s="23">
         <f t="shared" si="28"/>
-        <v>144155098</v>
+        <v>140639120</v>
       </c>
     </row>
     <row r="189" spans="14:17">
@@ -34718,11 +34722,11 @@
       </c>
       <c r="P189" s="23">
         <f t="shared" si="26"/>
-        <v>2759300</v>
+        <v>2692000</v>
       </c>
       <c r="Q189" s="23">
         <f t="shared" si="28"/>
-        <v>146859786</v>
+        <v>143277840</v>
       </c>
     </row>
     <row r="190" spans="14:17">
@@ -34735,11 +34739,11 @@
       </c>
       <c r="P190" s="23">
         <f t="shared" si="26"/>
-        <v>2759300</v>
+        <v>2692000</v>
       </c>
       <c r="Q190" s="23">
         <f t="shared" si="28"/>
-        <v>149619086</v>
+        <v>145969840</v>
       </c>
     </row>
     <row r="191" spans="14:17">
@@ -34752,11 +34756,11 @@
       </c>
       <c r="P191" s="23">
         <f t="shared" si="26"/>
-        <v>2759300</v>
+        <v>2692000</v>
       </c>
       <c r="Q191" s="23">
         <f t="shared" si="28"/>
-        <v>152378386</v>
+        <v>148661840</v>
       </c>
     </row>
     <row r="192" spans="14:17">
@@ -34769,11 +34773,11 @@
       </c>
       <c r="P192" s="23">
         <f t="shared" si="26"/>
-        <v>2815388</v>
+        <v>2746720</v>
       </c>
       <c r="Q192" s="23">
         <f t="shared" si="28"/>
-        <v>155137686</v>
+        <v>151353840</v>
       </c>
     </row>
     <row r="193" spans="14:17">
@@ -34786,11 +34790,11 @@
       </c>
       <c r="P193" s="23">
         <f t="shared" si="26"/>
-        <v>2815388</v>
+        <v>2746720</v>
       </c>
       <c r="Q193" s="23">
         <f t="shared" si="28"/>
-        <v>157953074</v>
+        <v>154100560</v>
       </c>
     </row>
     <row r="194" spans="14:17">
@@ -34802,11 +34806,11 @@
       </c>
       <c r="P194" s="23">
         <f t="shared" si="26"/>
-        <v>2815388</v>
+        <v>2746720</v>
       </c>
       <c r="Q194" s="23">
         <f t="shared" si="28"/>
-        <v>160768462</v>
+        <v>156847280</v>
       </c>
     </row>
     <row r="195" spans="14:17">
@@ -34818,11 +34822,11 @@
       </c>
       <c r="P195" s="23">
         <f t="shared" ref="P195" si="29">$G$16*O195</f>
-        <v>2872788</v>
+        <v>2802720</v>
       </c>
       <c r="Q195" s="23">
         <f t="shared" si="28"/>
-        <v>163583850</v>
+        <v>159594000</v>
       </c>
     </row>
     <row r="196" spans="14:17">
@@ -34834,11 +34838,11 @@
       </c>
       <c r="P196" s="23">
         <f t="shared" ref="P196:P227" si="30">$G$16*O196</f>
-        <v>2872788</v>
+        <v>2802720</v>
       </c>
       <c r="Q196" s="23">
         <f t="shared" si="28"/>
-        <v>166456638</v>
+        <v>162396720</v>
       </c>
     </row>
     <row r="197" spans="14:17">
@@ -34850,11 +34854,11 @@
       </c>
       <c r="P197" s="23">
         <f t="shared" si="30"/>
-        <v>2872788</v>
+        <v>2802720</v>
       </c>
       <c r="Q197" s="23">
         <f t="shared" si="28"/>
-        <v>169329426</v>
+        <v>165199440</v>
       </c>
     </row>
     <row r="198" spans="14:17">
@@ -34866,11 +34870,11 @@
       </c>
       <c r="P198" s="23">
         <f t="shared" si="30"/>
-        <v>2931500</v>
+        <v>2860000</v>
       </c>
       <c r="Q198" s="23">
         <f t="shared" si="28"/>
-        <v>172202214</v>
+        <v>168002160</v>
       </c>
     </row>
     <row r="199" spans="14:17">
@@ -34882,11 +34886,11 @@
       </c>
       <c r="P199" s="23">
         <f t="shared" si="30"/>
-        <v>2931500</v>
+        <v>2860000</v>
       </c>
       <c r="Q199" s="23">
         <f t="shared" si="28"/>
-        <v>175133714</v>
+        <v>170862160</v>
       </c>
     </row>
     <row r="200" spans="14:17">
@@ -34898,11 +34902,11 @@
       </c>
       <c r="P200" s="23">
         <f t="shared" si="30"/>
-        <v>2931500</v>
+        <v>2860000</v>
       </c>
       <c r="Q200" s="23">
         <f t="shared" ref="Q200" si="31">P199+Q199</f>
-        <v>178065214</v>
+        <v>173722160</v>
       </c>
     </row>
     <row r="201" spans="14:17">
@@ -34914,11 +34918,11 @@
       </c>
       <c r="P201" s="23">
         <f t="shared" si="30"/>
-        <v>2990294</v>
+        <v>2917360</v>
       </c>
       <c r="Q201" s="23">
         <f t="shared" ref="Q201:Q232" si="32">P200+Q200</f>
-        <v>180996714</v>
+        <v>176582160</v>
       </c>
     </row>
     <row r="202" spans="14:17">
@@ -34930,11 +34934,11 @@
       </c>
       <c r="P202" s="23">
         <f t="shared" si="30"/>
-        <v>2990294</v>
+        <v>2917360</v>
       </c>
       <c r="Q202" s="23">
         <f t="shared" si="32"/>
-        <v>183987008</v>
+        <v>179499520</v>
       </c>
     </row>
     <row r="203" spans="14:17">
@@ -34946,11 +34950,11 @@
       </c>
       <c r="P203" s="23">
         <f t="shared" si="30"/>
-        <v>2990294</v>
+        <v>2917360</v>
       </c>
       <c r="Q203" s="23">
         <f t="shared" si="32"/>
-        <v>186977302</v>
+        <v>182416880</v>
       </c>
     </row>
     <row r="204" spans="14:17">
@@ -34962,11 +34966,11 @@
       </c>
       <c r="P204" s="23">
         <f t="shared" si="30"/>
-        <v>3050400</v>
+        <v>2976000</v>
       </c>
       <c r="Q204" s="23">
         <f t="shared" si="32"/>
-        <v>189967596</v>
+        <v>185334240</v>
       </c>
     </row>
     <row r="205" spans="14:17">
@@ -34978,11 +34982,11 @@
       </c>
       <c r="P205" s="23">
         <f t="shared" si="30"/>
-        <v>3050400</v>
+        <v>2976000</v>
       </c>
       <c r="Q205" s="23">
         <f t="shared" si="32"/>
-        <v>193017996</v>
+        <v>188310240</v>
       </c>
     </row>
     <row r="206" spans="14:17">
@@ -34994,11 +34998,11 @@
       </c>
       <c r="P206" s="23">
         <f t="shared" si="30"/>
-        <v>3050400</v>
+        <v>2976000</v>
       </c>
       <c r="Q206" s="23">
         <f t="shared" si="32"/>
-        <v>196068396</v>
+        <v>191286240</v>
       </c>
     </row>
     <row r="207" spans="14:17">
@@ -35010,11 +35014,11 @@
       </c>
       <c r="P207" s="23">
         <f t="shared" si="30"/>
-        <v>3111900</v>
+        <v>3036000</v>
       </c>
       <c r="Q207" s="23">
         <f t="shared" si="32"/>
-        <v>199118796</v>
+        <v>194262240</v>
       </c>
     </row>
     <row r="208" spans="14:17">
@@ -35026,11 +35030,11 @@
       </c>
       <c r="P208" s="23">
         <f t="shared" si="30"/>
-        <v>3111900</v>
+        <v>3036000</v>
       </c>
       <c r="Q208" s="23">
         <f t="shared" si="32"/>
-        <v>202230696</v>
+        <v>197298240</v>
       </c>
     </row>
     <row r="209" spans="14:17">
@@ -35042,11 +35046,11 @@
       </c>
       <c r="P209" s="23">
         <f t="shared" si="30"/>
-        <v>3111900</v>
+        <v>3036000</v>
       </c>
       <c r="Q209" s="23">
         <f t="shared" si="32"/>
-        <v>205342596</v>
+        <v>200334240</v>
       </c>
     </row>
     <row r="210" spans="14:17">
@@ -35058,11 +35062,11 @@
       </c>
       <c r="P210" s="23">
         <f t="shared" si="30"/>
-        <v>3174794</v>
+        <v>3097360</v>
       </c>
       <c r="Q210" s="23">
         <f t="shared" si="32"/>
-        <v>208454496</v>
+        <v>203370240</v>
       </c>
     </row>
     <row r="211" spans="14:17">
@@ -35074,11 +35078,11 @@
       </c>
       <c r="P211" s="23">
         <f t="shared" si="30"/>
-        <v>3174794</v>
+        <v>3097360</v>
       </c>
       <c r="Q211" s="23">
         <f t="shared" si="32"/>
-        <v>211629290</v>
+        <v>206467600</v>
       </c>
     </row>
     <row r="212" spans="14:17">
@@ -35090,11 +35094,11 @@
       </c>
       <c r="P212" s="23">
         <f t="shared" si="30"/>
-        <v>3174794</v>
+        <v>3097360</v>
       </c>
       <c r="Q212" s="23">
         <f t="shared" si="32"/>
-        <v>214804084</v>
+        <v>209564960</v>
       </c>
     </row>
     <row r="213" spans="14:17">
@@ -35106,11 +35110,11 @@
       </c>
       <c r="P213" s="23">
         <f t="shared" si="30"/>
-        <v>3239000</v>
+        <v>3160000</v>
       </c>
       <c r="Q213" s="23">
         <f t="shared" si="32"/>
-        <v>217978878</v>
+        <v>212662320</v>
       </c>
     </row>
     <row r="214" spans="14:17">
@@ -35122,11 +35126,11 @@
       </c>
       <c r="P214" s="23">
         <f t="shared" si="30"/>
-        <v>3239000</v>
+        <v>3160000</v>
       </c>
       <c r="Q214" s="23">
         <f t="shared" si="32"/>
-        <v>221217878</v>
+        <v>215822320</v>
       </c>
     </row>
     <row r="215" spans="14:17">
@@ -35138,11 +35142,11 @@
       </c>
       <c r="P215" s="23">
         <f t="shared" si="30"/>
-        <v>3239000</v>
+        <v>3160000</v>
       </c>
       <c r="Q215" s="23">
         <f t="shared" si="32"/>
-        <v>224456878</v>
+        <v>218982320</v>
       </c>
     </row>
     <row r="216" spans="14:17">
@@ -35154,11 +35158,11 @@
       </c>
       <c r="P216" s="23">
         <f t="shared" si="30"/>
-        <v>3304600</v>
+        <v>3224000</v>
       </c>
       <c r="Q216" s="23">
         <f t="shared" si="32"/>
-        <v>227695878</v>
+        <v>222142320</v>
       </c>
     </row>
     <row r="217" spans="14:17">
@@ -35170,11 +35174,11 @@
       </c>
       <c r="P217" s="23">
         <f t="shared" si="30"/>
-        <v>3304600</v>
+        <v>3224000</v>
       </c>
       <c r="Q217" s="23">
         <f t="shared" si="32"/>
-        <v>231000478</v>
+        <v>225366320</v>
       </c>
     </row>
     <row r="218" spans="14:17">
@@ -35186,11 +35190,11 @@
       </c>
       <c r="P218" s="23">
         <f t="shared" si="30"/>
-        <v>3304600</v>
+        <v>3224000</v>
       </c>
       <c r="Q218" s="23">
         <f t="shared" si="32"/>
-        <v>234305078</v>
+        <v>228590320</v>
       </c>
     </row>
     <row r="219" spans="14:17">
@@ -35202,11 +35206,11 @@
       </c>
       <c r="P219" s="23">
         <f t="shared" si="30"/>
-        <v>3371594</v>
+        <v>3289360</v>
       </c>
       <c r="Q219" s="23">
         <f t="shared" si="32"/>
-        <v>237609678</v>
+        <v>231814320</v>
       </c>
     </row>
     <row r="220" spans="14:17">
@@ -35218,11 +35222,11 @@
       </c>
       <c r="P220" s="23">
         <f t="shared" si="30"/>
-        <v>3371594</v>
+        <v>3289360</v>
       </c>
       <c r="Q220" s="23">
         <f t="shared" si="32"/>
-        <v>240981272</v>
+        <v>235103680</v>
       </c>
     </row>
     <row r="221" spans="14:17">
@@ -35234,11 +35238,11 @@
       </c>
       <c r="P221" s="23">
         <f t="shared" si="30"/>
-        <v>3371594</v>
+        <v>3289360</v>
       </c>
       <c r="Q221" s="23">
         <f t="shared" si="32"/>
-        <v>244352866</v>
+        <v>238393040</v>
       </c>
     </row>
     <row r="222" spans="14:17">
@@ -35250,11 +35254,11 @@
       </c>
       <c r="P222" s="23">
         <f t="shared" si="30"/>
-        <v>3439900</v>
+        <v>3356000</v>
       </c>
       <c r="Q222" s="23">
         <f t="shared" si="32"/>
-        <v>247724460</v>
+        <v>241682400</v>
       </c>
     </row>
     <row r="223" spans="14:17">
@@ -35266,11 +35270,11 @@
       </c>
       <c r="P223" s="23">
         <f t="shared" si="30"/>
-        <v>3439900</v>
+        <v>3356000</v>
       </c>
       <c r="Q223" s="23">
         <f t="shared" si="32"/>
-        <v>251164360</v>
+        <v>245038400</v>
       </c>
     </row>
     <row r="224" spans="14:17">
@@ -35282,11 +35286,11 @@
       </c>
       <c r="P224" s="23">
         <f t="shared" si="30"/>
-        <v>3439900</v>
+        <v>3356000</v>
       </c>
       <c r="Q224" s="23">
         <f t="shared" si="32"/>
-        <v>254604260</v>
+        <v>248394400</v>
       </c>
     </row>
     <row r="225" spans="14:17">
@@ -35298,11 +35302,11 @@
       </c>
       <c r="P225" s="23">
         <f t="shared" si="30"/>
-        <v>3509600</v>
+        <v>3424000</v>
       </c>
       <c r="Q225" s="23">
         <f t="shared" si="32"/>
-        <v>258044160</v>
+        <v>251750400</v>
       </c>
     </row>
     <row r="226" spans="14:17">
@@ -35314,11 +35318,11 @@
       </c>
       <c r="P226" s="23">
         <f t="shared" si="30"/>
-        <v>3509600</v>
+        <v>3424000</v>
       </c>
       <c r="Q226" s="23">
         <f t="shared" si="32"/>
-        <v>261553760</v>
+        <v>255174400</v>
       </c>
     </row>
     <row r="227" spans="14:17">
@@ -35330,11 +35334,11 @@
       </c>
       <c r="P227" s="23">
         <f t="shared" si="30"/>
-        <v>3509600</v>
+        <v>3424000</v>
       </c>
       <c r="Q227" s="23">
         <f t="shared" si="32"/>
-        <v>265063360</v>
+        <v>258598400</v>
       </c>
     </row>
     <row r="228" spans="14:17">
@@ -35346,11 +35350,11 @@
       </c>
       <c r="P228" s="23">
         <f t="shared" ref="P228:P258" si="33">$G$16*O228</f>
-        <v>3580694</v>
+        <v>3493360</v>
       </c>
       <c r="Q228" s="23">
         <f t="shared" si="32"/>
-        <v>268572960</v>
+        <v>262022400</v>
       </c>
     </row>
     <row r="229" spans="14:17">
@@ -35362,11 +35366,11 @@
       </c>
       <c r="P229" s="23">
         <f t="shared" si="33"/>
-        <v>3580694</v>
+        <v>3493360</v>
       </c>
       <c r="Q229" s="23">
         <f t="shared" si="32"/>
-        <v>272153654</v>
+        <v>265515760</v>
       </c>
     </row>
     <row r="230" spans="14:17">
@@ -35378,11 +35382,11 @@
       </c>
       <c r="P230" s="23">
         <f t="shared" si="33"/>
-        <v>3580694</v>
+        <v>3493360</v>
       </c>
       <c r="Q230" s="23">
         <f t="shared" si="32"/>
-        <v>275734348</v>
+        <v>269009120</v>
       </c>
     </row>
     <row r="231" spans="14:17">
@@ -35394,11 +35398,11 @@
       </c>
       <c r="P231" s="23">
         <f t="shared" si="33"/>
-        <v>3653100</v>
+        <v>3564000</v>
       </c>
       <c r="Q231" s="23">
         <f t="shared" si="32"/>
-        <v>279315042</v>
+        <v>272502480</v>
       </c>
     </row>
     <row r="232" spans="14:17">
@@ -35410,11 +35414,11 @@
       </c>
       <c r="P232" s="23">
         <f t="shared" si="33"/>
-        <v>3653100</v>
+        <v>3564000</v>
       </c>
       <c r="Q232" s="23">
         <f t="shared" si="32"/>
-        <v>282968142</v>
+        <v>276066480</v>
       </c>
     </row>
     <row r="233" spans="14:17">
@@ -35426,11 +35430,11 @@
       </c>
       <c r="P233" s="23">
         <f t="shared" si="33"/>
-        <v>3653100</v>
+        <v>3564000</v>
       </c>
       <c r="Q233" s="23">
         <f t="shared" ref="Q233:Q263" si="34">P232+Q232</f>
-        <v>286621242</v>
+        <v>279630480</v>
       </c>
     </row>
     <row r="234" spans="14:17">
@@ -35442,11 +35446,11 @@
       </c>
       <c r="P234" s="23">
         <f t="shared" si="33"/>
-        <v>3726900</v>
+        <v>3636000</v>
       </c>
       <c r="Q234" s="23">
         <f t="shared" si="34"/>
-        <v>290274342</v>
+        <v>283194480</v>
       </c>
     </row>
     <row r="235" spans="14:17">
@@ -35458,11 +35462,11 @@
       </c>
       <c r="P235" s="23">
         <f t="shared" si="33"/>
-        <v>3726900</v>
+        <v>3636000</v>
       </c>
       <c r="Q235" s="23">
         <f t="shared" si="34"/>
-        <v>294001242</v>
+        <v>286830480</v>
       </c>
     </row>
     <row r="236" spans="14:17">
@@ -35474,11 +35478,11 @@
       </c>
       <c r="P236" s="23">
         <f t="shared" si="33"/>
-        <v>3726900</v>
+        <v>3636000</v>
       </c>
       <c r="Q236" s="23">
         <f t="shared" si="34"/>
-        <v>297728142</v>
+        <v>290466480</v>
       </c>
     </row>
     <row r="237" spans="14:17">
@@ -35490,11 +35494,11 @@
       </c>
       <c r="P237" s="23">
         <f t="shared" si="33"/>
-        <v>3801520</v>
+        <v>3708800</v>
       </c>
       <c r="Q237" s="23">
         <f t="shared" si="34"/>
-        <v>301455042</v>
+        <v>294102480</v>
       </c>
     </row>
     <row r="238" spans="14:17">
@@ -35506,11 +35510,11 @@
       </c>
       <c r="P238" s="23">
         <f t="shared" si="33"/>
-        <v>3801520</v>
+        <v>3708800</v>
       </c>
       <c r="Q238" s="23">
         <f t="shared" si="34"/>
-        <v>305256562</v>
+        <v>297811280</v>
       </c>
     </row>
     <row r="239" spans="14:17">
@@ -35522,11 +35526,11 @@
       </c>
       <c r="P239" s="23">
         <f t="shared" si="33"/>
-        <v>3801520</v>
+        <v>3708800</v>
       </c>
       <c r="Q239" s="23">
         <f t="shared" si="34"/>
-        <v>309058082</v>
+        <v>301520080</v>
       </c>
     </row>
     <row r="240" spans="14:17">
@@ -35538,11 +35542,11 @@
       </c>
       <c r="P240" s="23">
         <f t="shared" si="33"/>
-        <v>3878600</v>
+        <v>3784000</v>
       </c>
       <c r="Q240" s="23">
         <f t="shared" si="34"/>
-        <v>312859602</v>
+        <v>305228880</v>
       </c>
     </row>
     <row r="241" spans="14:17">
@@ -35554,11 +35558,11 @@
       </c>
       <c r="P241" s="23">
         <f t="shared" si="33"/>
-        <v>3878600</v>
+        <v>3784000</v>
       </c>
       <c r="Q241" s="23">
         <f t="shared" si="34"/>
-        <v>316738202</v>
+        <v>309012880</v>
       </c>
     </row>
     <row r="242" spans="14:17">
@@ -35570,11 +35574,11 @@
       </c>
       <c r="P242" s="23">
         <f t="shared" si="33"/>
-        <v>3878600</v>
+        <v>3784000</v>
       </c>
       <c r="Q242" s="23">
         <f t="shared" si="34"/>
-        <v>320616802</v>
+        <v>312796880</v>
       </c>
     </row>
     <row r="243" spans="14:17">
@@ -35586,11 +35590,11 @@
       </c>
       <c r="P243" s="23">
         <f t="shared" si="33"/>
-        <v>3956500</v>
+        <v>3860000</v>
       </c>
       <c r="Q243" s="23">
         <f t="shared" si="34"/>
-        <v>324495402</v>
+        <v>316580880</v>
       </c>
     </row>
     <row r="244" spans="14:17">
@@ -35602,11 +35606,11 @@
       </c>
       <c r="P244" s="23">
         <f t="shared" si="33"/>
-        <v>3956500</v>
+        <v>3860000</v>
       </c>
       <c r="Q244" s="23">
         <f t="shared" si="34"/>
-        <v>328451902</v>
+        <v>320440880</v>
       </c>
     </row>
     <row r="245" spans="14:17">
@@ -35618,11 +35622,11 @@
       </c>
       <c r="P245" s="23">
         <f t="shared" si="33"/>
-        <v>3956500</v>
+        <v>3860000</v>
       </c>
       <c r="Q245" s="23">
         <f t="shared" si="34"/>
-        <v>332408402</v>
+        <v>324300880</v>
       </c>
     </row>
     <row r="246" spans="14:17">
@@ -35634,11 +35638,11 @@
       </c>
       <c r="P246" s="23">
         <f t="shared" si="33"/>
-        <v>4035794</v>
+        <v>3937360</v>
       </c>
       <c r="Q246" s="23">
         <f t="shared" si="34"/>
-        <v>336364902</v>
+        <v>328160880</v>
       </c>
     </row>
     <row r="247" spans="14:17">
@@ -35650,11 +35654,11 @@
       </c>
       <c r="P247" s="23">
         <f t="shared" si="33"/>
-        <v>4035794</v>
+        <v>3937360</v>
       </c>
       <c r="Q247" s="23">
         <f t="shared" si="34"/>
-        <v>340400696</v>
+        <v>332098240</v>
       </c>
     </row>
     <row r="248" spans="14:17">
@@ -35666,11 +35670,11 @@
       </c>
       <c r="P248" s="23">
         <f t="shared" si="33"/>
-        <v>4035794</v>
+        <v>3937360</v>
       </c>
       <c r="Q248" s="23">
         <f t="shared" si="34"/>
-        <v>344436490</v>
+        <v>336035600</v>
       </c>
     </row>
     <row r="249" spans="14:17">
@@ -35682,11 +35686,11 @@
       </c>
       <c r="P249" s="23">
         <f t="shared" si="33"/>
-        <v>4117220</v>
+        <v>4016800</v>
       </c>
       <c r="Q249" s="23">
         <f t="shared" si="34"/>
-        <v>348472284</v>
+        <v>339972960</v>
       </c>
     </row>
     <row r="250" spans="14:17">
@@ -35698,11 +35702,11 @@
       </c>
       <c r="P250" s="23">
         <f t="shared" si="33"/>
-        <v>4117220</v>
+        <v>4016800</v>
       </c>
       <c r="Q250" s="23">
         <f t="shared" si="34"/>
-        <v>352589504</v>
+        <v>343989760</v>
       </c>
     </row>
     <row r="251" spans="14:17">
@@ -35714,11 +35718,11 @@
       </c>
       <c r="P251" s="23">
         <f t="shared" si="33"/>
-        <v>4117220</v>
+        <v>4016800</v>
       </c>
       <c r="Q251" s="23">
         <f t="shared" si="34"/>
-        <v>356706724</v>
+        <v>348006560</v>
       </c>
     </row>
     <row r="252" spans="14:17">
@@ -35730,11 +35734,11 @@
       </c>
       <c r="P252" s="23">
         <f t="shared" si="33"/>
-        <v>4201188</v>
+        <v>4098720</v>
       </c>
       <c r="Q252" s="23">
         <f t="shared" si="34"/>
-        <v>360823944</v>
+        <v>352023360</v>
       </c>
     </row>
     <row r="253" spans="14:17">
@@ -35746,11 +35750,11 @@
       </c>
       <c r="P253" s="23">
         <f t="shared" si="33"/>
-        <v>4201188</v>
+        <v>4098720</v>
       </c>
       <c r="Q253" s="23">
         <f t="shared" si="34"/>
-        <v>365025132</v>
+        <v>356122080</v>
       </c>
     </row>
     <row r="254" spans="14:17">
@@ -35762,11 +35766,11 @@
       </c>
       <c r="P254" s="23">
         <f t="shared" si="33"/>
-        <v>4201188</v>
+        <v>4098720</v>
       </c>
       <c r="Q254" s="23">
         <f t="shared" si="34"/>
-        <v>369226320</v>
+        <v>360220800</v>
       </c>
     </row>
     <row r="255" spans="14:17">
@@ -35778,11 +35782,11 @@
       </c>
       <c r="P255" s="23">
         <f t="shared" si="33"/>
-        <v>4287288</v>
+        <v>4182720</v>
       </c>
 